--- a/export/files/excel/J72K.xlsx
+++ b/export/files/excel/J72K.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\QC_Han\export\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10F0DF5-58AB-4EA3-A330-1B6C5BEEAEA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1749BAED-F4FD-4AFE-BA24-9C432B680C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1470,24 +1470,627 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1506,17 +2109,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1536,620 +2145,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2231,292 +2231,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="121857" name="Group 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EED6F49-37F0-4AB4-97DF-62DFDA37DF57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2092187" y="3916017"/>
-          <a:ext cx="436990" cy="2580530"/>
-          <a:chOff x="2322634" y="3605489"/>
-          <a:chExt cx="417635" cy="3325780"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="Double Bracket 60">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1069DFE2-8AB6-4F07-9797-99286E80C5B5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2322634" y="3762458"/>
-            <a:ext cx="417635" cy="3168811"/>
-          </a:xfrm>
-          <a:prstGeom prst="bracketPair">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="Isosceles Triangle 61">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF5D4374-6144-473E-99A7-01804A0C4576}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2425211" y="3605489"/>
-            <a:ext cx="212481" cy="196211"/>
-          </a:xfrm>
-          <a:prstGeom prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>2</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="121858" name="Group 137">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90BF483-2928-4D8A-8A3F-B5A9BE85DD2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5471491" y="3916017"/>
-          <a:ext cx="452562" cy="2252870"/>
-          <a:chOff x="2322634" y="3640258"/>
-          <a:chExt cx="417635" cy="3291011"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="Double Bracket 63">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084CED61-C088-4A56-8316-B1189E099BD8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2322634" y="3829269"/>
-            <a:ext cx="417635" cy="3102000"/>
-          </a:xfrm>
-          <a:prstGeom prst="bracketPair">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="Isosceles Triangle 64">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4589A562-9310-4B92-8A9B-ADBCFD4EEFD5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2428812" y="3640258"/>
-            <a:ext cx="212357" cy="233484"/>
-          </a:xfrm>
-          <a:prstGeom prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>2</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2663,6 +2377,50 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19878</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>159026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>202561</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>39981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{758893B7-BCF6-4D6F-A8DC-B0EBA026012D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2073965" y="3922643"/>
+          <a:ext cx="3846909" cy="2591025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3036,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ316"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BE9" sqref="BE9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BT33" sqref="BT33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -3075,546 +2833,546 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="176" t="s">
+      <c r="A1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="179" t="s">
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="117"/>
+      <c r="AG1" s="117"/>
+      <c r="AH1" s="117"/>
+      <c r="AI1" s="117"/>
+      <c r="AJ1" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
+      <c r="AK1" s="121"/>
+      <c r="AL1" s="121"/>
+      <c r="AM1" s="121"/>
+      <c r="AN1" s="121"/>
+      <c r="AO1" s="121"/>
+      <c r="AP1" s="121"/>
+      <c r="AQ1" s="121"/>
     </row>
     <row r="2" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="177"/>
-      <c r="AC2" s="177"/>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="177"/>
-      <c r="AG2" s="177"/>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="177"/>
-      <c r="AJ2" s="180"/>
-      <c r="AK2" s="180"/>
-      <c r="AL2" s="180"/>
-      <c r="AM2" s="180"/>
-      <c r="AN2" s="180"/>
-      <c r="AO2" s="180"/>
-      <c r="AP2" s="180"/>
-      <c r="AQ2" s="180"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="122"/>
     </row>
     <row r="3" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="178"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="178"/>
-      <c r="T3" s="178"/>
-      <c r="U3" s="178"/>
-      <c r="V3" s="178"/>
-      <c r="W3" s="178"/>
-      <c r="X3" s="178"/>
-      <c r="Y3" s="178"/>
-      <c r="Z3" s="178"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="178"/>
-      <c r="AD3" s="178"/>
-      <c r="AE3" s="178"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="178"/>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="178"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="123"/>
+      <c r="AK3" s="123"/>
+      <c r="AL3" s="123"/>
+      <c r="AM3" s="123"/>
+      <c r="AN3" s="123"/>
+      <c r="AO3" s="123"/>
+      <c r="AP3" s="123"/>
+      <c r="AQ3" s="123"/>
     </row>
     <row r="4" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="114"/>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="194" t="s">
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="125"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="125"/>
+      <c r="AG4" s="125"/>
+      <c r="AH4" s="125"/>
+      <c r="AI4" s="126"/>
+      <c r="AJ4" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="AK4" s="194"/>
-      <c r="AL4" s="194"/>
-      <c r="AM4" s="194"/>
-      <c r="AN4" s="182" t="s">
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="AO4" s="182"/>
-      <c r="AP4" s="182"/>
-      <c r="AQ4" s="182"/>
+      <c r="AO4" s="131"/>
+      <c r="AP4" s="131"/>
+      <c r="AQ4" s="131"/>
     </row>
     <row r="5" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="119"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="120"/>
-      <c r="AA5" s="120"/>
-      <c r="AB5" s="120"/>
-      <c r="AC5" s="120"/>
-      <c r="AD5" s="120"/>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="120"/>
-      <c r="AG5" s="120"/>
-      <c r="AH5" s="120"/>
-      <c r="AI5" s="121"/>
-      <c r="AJ5" s="194"/>
-      <c r="AK5" s="194"/>
-      <c r="AL5" s="194"/>
-      <c r="AM5" s="194"/>
-      <c r="AN5" s="182"/>
-      <c r="AO5" s="182"/>
-      <c r="AP5" s="182"/>
-      <c r="AQ5" s="182"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
+      <c r="AF5" s="128"/>
+      <c r="AG5" s="128"/>
+      <c r="AH5" s="128"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="95"/>
+      <c r="AN5" s="131"/>
+      <c r="AO5" s="131"/>
+      <c r="AP5" s="131"/>
+      <c r="AQ5" s="131"/>
     </row>
     <row r="6" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="119"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="120"/>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="120"/>
-      <c r="AH6" s="120"/>
-      <c r="AI6" s="121"/>
-      <c r="AJ6" s="194"/>
-      <c r="AK6" s="194"/>
-      <c r="AL6" s="194"/>
-      <c r="AM6" s="194"/>
-      <c r="AN6" s="182"/>
-      <c r="AO6" s="182"/>
-      <c r="AP6" s="182"/>
-      <c r="AQ6" s="182"/>
+      <c r="A6" s="127"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="128"/>
+      <c r="T6" s="128"/>
+      <c r="U6" s="128"/>
+      <c r="V6" s="128"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="128"/>
+      <c r="Y6" s="128"/>
+      <c r="Z6" s="128"/>
+      <c r="AA6" s="128"/>
+      <c r="AB6" s="128"/>
+      <c r="AC6" s="128"/>
+      <c r="AD6" s="128"/>
+      <c r="AE6" s="128"/>
+      <c r="AF6" s="128"/>
+      <c r="AG6" s="128"/>
+      <c r="AH6" s="128"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="95"/>
+      <c r="AM6" s="95"/>
+      <c r="AN6" s="131"/>
+      <c r="AO6" s="131"/>
+      <c r="AP6" s="131"/>
+      <c r="AQ6" s="131"/>
     </row>
     <row r="7" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="183"/>
-      <c r="U7" s="183"/>
-      <c r="V7" s="181" t="s">
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="W7" s="181"/>
-      <c r="X7" s="181"/>
-      <c r="Y7" s="181"/>
-      <c r="Z7" s="181"/>
-      <c r="AA7" s="181"/>
-      <c r="AB7" s="181"/>
-      <c r="AC7" s="181"/>
-      <c r="AD7" s="181"/>
-      <c r="AE7" s="181"/>
-      <c r="AF7" s="181"/>
-      <c r="AG7" s="181"/>
-      <c r="AH7" s="181"/>
-      <c r="AI7" s="181"/>
-      <c r="AJ7" s="194"/>
-      <c r="AK7" s="194"/>
-      <c r="AL7" s="194"/>
-      <c r="AM7" s="194"/>
-      <c r="AN7" s="182"/>
-      <c r="AO7" s="182"/>
-      <c r="AP7" s="182"/>
-      <c r="AQ7" s="182"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130"/>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="130"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="130"/>
+      <c r="AJ7" s="95"/>
+      <c r="AK7" s="95"/>
+      <c r="AL7" s="95"/>
+      <c r="AM7" s="95"/>
+      <c r="AN7" s="131"/>
+      <c r="AO7" s="131"/>
+      <c r="AP7" s="131"/>
+      <c r="AQ7" s="131"/>
     </row>
     <row r="8" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="184"/>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="184"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="184"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="184"/>
-      <c r="V8" s="181"/>
-      <c r="W8" s="181"/>
-      <c r="X8" s="181"/>
-      <c r="Y8" s="181"/>
-      <c r="Z8" s="181"/>
-      <c r="AA8" s="181"/>
-      <c r="AB8" s="181"/>
-      <c r="AC8" s="181"/>
-      <c r="AD8" s="181"/>
-      <c r="AE8" s="181"/>
-      <c r="AF8" s="181"/>
-      <c r="AG8" s="181"/>
-      <c r="AH8" s="181"/>
-      <c r="AI8" s="181"/>
-      <c r="AJ8" s="194"/>
-      <c r="AK8" s="194"/>
-      <c r="AL8" s="194"/>
-      <c r="AM8" s="194"/>
-      <c r="AN8" s="182"/>
-      <c r="AO8" s="182"/>
-      <c r="AP8" s="182"/>
-      <c r="AQ8" s="182"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="130"/>
+      <c r="X8" s="130"/>
+      <c r="Y8" s="130"/>
+      <c r="Z8" s="130"/>
+      <c r="AA8" s="130"/>
+      <c r="AB8" s="130"/>
+      <c r="AC8" s="130"/>
+      <c r="AD8" s="130"/>
+      <c r="AE8" s="130"/>
+      <c r="AF8" s="130"/>
+      <c r="AG8" s="130"/>
+      <c r="AH8" s="130"/>
+      <c r="AI8" s="130"/>
+      <c r="AJ8" s="95"/>
+      <c r="AK8" s="95"/>
+      <c r="AL8" s="95"/>
+      <c r="AM8" s="95"/>
+      <c r="AN8" s="131"/>
+      <c r="AO8" s="131"/>
+      <c r="AP8" s="131"/>
+      <c r="AQ8" s="131"/>
     </row>
     <row r="9" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="219"/>
-      <c r="I9" s="219"/>
-      <c r="J9" s="219"/>
-      <c r="K9" s="219"/>
-      <c r="L9" s="220"/>
-      <c r="M9" s="219" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="219"/>
-      <c r="O9" s="219"/>
-      <c r="P9" s="219"/>
-      <c r="Q9" s="219"/>
-      <c r="R9" s="219"/>
-      <c r="S9" s="219"/>
-      <c r="T9" s="219"/>
-      <c r="U9" s="220"/>
-      <c r="V9" s="181" t="s">
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="W9" s="181"/>
-      <c r="X9" s="181"/>
-      <c r="Y9" s="181"/>
-      <c r="Z9" s="181"/>
-      <c r="AA9" s="181"/>
-      <c r="AB9" s="181"/>
-      <c r="AC9" s="181"/>
-      <c r="AD9" s="181"/>
-      <c r="AE9" s="181"/>
-      <c r="AF9" s="181"/>
-      <c r="AG9" s="181"/>
-      <c r="AH9" s="181"/>
-      <c r="AI9" s="181"/>
-      <c r="AJ9" s="194"/>
-      <c r="AK9" s="194"/>
-      <c r="AL9" s="194"/>
-      <c r="AM9" s="194"/>
-      <c r="AN9" s="182"/>
-      <c r="AO9" s="182"/>
-      <c r="AP9" s="182"/>
-      <c r="AQ9" s="182"/>
+      <c r="W9" s="130"/>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="130"/>
+      <c r="AA9" s="130"/>
+      <c r="AB9" s="130"/>
+      <c r="AC9" s="130"/>
+      <c r="AD9" s="130"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="130"/>
+      <c r="AG9" s="130"/>
+      <c r="AH9" s="130"/>
+      <c r="AI9" s="130"/>
+      <c r="AJ9" s="95"/>
+      <c r="AK9" s="95"/>
+      <c r="AL9" s="95"/>
+      <c r="AM9" s="95"/>
+      <c r="AN9" s="131"/>
+      <c r="AO9" s="131"/>
+      <c r="AP9" s="131"/>
+      <c r="AQ9" s="131"/>
     </row>
     <row r="10" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="221"/>
-      <c r="B10" s="222"/>
-      <c r="C10" s="222"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="222"/>
-      <c r="J10" s="222"/>
-      <c r="K10" s="222"/>
-      <c r="L10" s="223"/>
-      <c r="M10" s="222"/>
-      <c r="N10" s="222"/>
-      <c r="O10" s="222"/>
-      <c r="P10" s="222"/>
-      <c r="Q10" s="222"/>
-      <c r="R10" s="222"/>
-      <c r="S10" s="222"/>
-      <c r="T10" s="222"/>
-      <c r="U10" s="223"/>
-      <c r="V10" s="181"/>
-      <c r="W10" s="181"/>
-      <c r="X10" s="181"/>
-      <c r="Y10" s="181"/>
-      <c r="Z10" s="181"/>
-      <c r="AA10" s="181"/>
-      <c r="AB10" s="181"/>
-      <c r="AC10" s="181"/>
-      <c r="AD10" s="181"/>
-      <c r="AE10" s="181"/>
-      <c r="AF10" s="181"/>
-      <c r="AG10" s="181"/>
-      <c r="AH10" s="181"/>
-      <c r="AI10" s="181"/>
-      <c r="AJ10" s="194"/>
-      <c r="AK10" s="194"/>
-      <c r="AL10" s="194"/>
-      <c r="AM10" s="194"/>
-      <c r="AN10" s="182"/>
-      <c r="AO10" s="182"/>
-      <c r="AP10" s="182"/>
-      <c r="AQ10" s="182"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="130"/>
+      <c r="Z10" s="130"/>
+      <c r="AA10" s="130"/>
+      <c r="AB10" s="130"/>
+      <c r="AC10" s="130"/>
+      <c r="AD10" s="130"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="130"/>
+      <c r="AG10" s="130"/>
+      <c r="AH10" s="130"/>
+      <c r="AI10" s="130"/>
+      <c r="AJ10" s="95"/>
+      <c r="AK10" s="95"/>
+      <c r="AL10" s="95"/>
+      <c r="AM10" s="95"/>
+      <c r="AN10" s="131"/>
+      <c r="AO10" s="131"/>
+      <c r="AP10" s="131"/>
+      <c r="AQ10" s="131"/>
     </row>
     <row r="11" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="205" t="s">
+      <c r="A11" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="76" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="108"/>
+      <c r="R11" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="77"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="77"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="77"/>
-      <c r="AK11" s="77"/>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="77"/>
-      <c r="AN11" s="77"/>
-      <c r="AO11" s="77"/>
-      <c r="AP11" s="77"/>
-      <c r="AQ11" s="78"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="99"/>
+      <c r="AJ11" s="99"/>
+      <c r="AK11" s="99"/>
+      <c r="AL11" s="99"/>
+      <c r="AM11" s="99"/>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="99"/>
+      <c r="AQ11" s="100"/>
     </row>
     <row r="12" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="224" t="s">
+      <c r="A12" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="225"/>
-      <c r="C12" s="225"/>
-      <c r="D12" s="225"/>
-      <c r="E12" s="225"/>
-      <c r="F12" s="225"/>
-      <c r="G12" s="225"/>
-      <c r="H12" s="225"/>
-      <c r="I12" s="225"/>
-      <c r="J12" s="225"/>
-      <c r="K12" s="225"/>
-      <c r="L12" s="225"/>
-      <c r="M12" s="225"/>
-      <c r="N12" s="225"/>
-      <c r="O12" s="225"/>
-      <c r="P12" s="225"/>
-      <c r="Q12" s="226"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="80"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -4273,1205 +4031,1205 @@
       <c r="AQ26" s="7"/>
     </row>
     <row r="27" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="148" t="s">
+      <c r="A27" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="37" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37" t="s">
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="148"/>
-      <c r="K27" s="90" t="s">
+      <c r="I27" s="40"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="149" t="s">
         <v>104</v>
       </c>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="88" t="s">
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="O27" s="89"/>
-      <c r="P27" s="148" t="s">
+      <c r="O27" s="136"/>
+      <c r="P27" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="148" t="s">
+      <c r="Q27" s="44"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="T27" s="91"/>
-      <c r="U27" s="92"/>
-      <c r="W27" s="148" t="s">
+      <c r="T27" s="44"/>
+      <c r="U27" s="45"/>
+      <c r="W27" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="X27" s="91"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="37" t="s">
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37" t="s">
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="90" t="s">
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="40"/>
+      <c r="AG27" s="149" t="s">
         <v>104</v>
       </c>
-      <c r="AH27" s="91"/>
-      <c r="AI27" s="92"/>
-      <c r="AJ27" s="88" t="s">
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="45"/>
+      <c r="AJ27" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="AK27" s="89"/>
-      <c r="AL27" s="148" t="s">
+      <c r="AK27" s="136"/>
+      <c r="AL27" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="AM27" s="91"/>
-      <c r="AN27" s="92"/>
-      <c r="AO27" s="148" t="s">
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="AP27" s="91"/>
-      <c r="AQ27" s="92"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="45"/>
     </row>
     <row r="28" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="113" t="s">
+      <c r="A28" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="113">
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="124">
         <v>1</v>
       </c>
-      <c r="F28" s="114"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="110" t="s">
+      <c r="F28" s="125"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="111"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="235" t="s">
+      <c r="I28" s="91"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="L28" s="106"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="106" t="s">
+      <c r="L28" s="48"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="O28" s="103"/>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="148"/>
-      <c r="T28" s="91"/>
-      <c r="U28" s="92"/>
-      <c r="W28" s="164" t="s">
+      <c r="O28" s="49"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="45"/>
+      <c r="W28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="X28" s="164"/>
-      <c r="Y28" s="164"/>
-      <c r="Z28" s="164"/>
-      <c r="AA28" s="164">
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42">
         <v>9</v>
       </c>
-      <c r="AB28" s="164"/>
-      <c r="AC28" s="164"/>
-      <c r="AD28" s="147" t="s">
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AE28" s="147"/>
-      <c r="AF28" s="147"/>
-      <c r="AG28" s="169" t="s">
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="43"/>
+      <c r="AG28" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="AH28" s="91"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="91" t="s">
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="AK28" s="92"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="37"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="37"/>
-      <c r="AQ28" s="37"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="40"/>
+      <c r="AM28" s="40"/>
+      <c r="AN28" s="40"/>
+      <c r="AO28" s="40"/>
+      <c r="AP28" s="40"/>
+      <c r="AQ28" s="40"/>
     </row>
     <row r="29" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="119"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="129" t="s">
+      <c r="A29" s="127"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="130"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="101" t="s">
+      <c r="I29" s="144"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="L29" s="99"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="99" t="s">
+      <c r="L29" s="50"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="O29" s="100"/>
-      <c r="P29" s="148"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="148"/>
-      <c r="T29" s="91"/>
-      <c r="U29" s="92"/>
-      <c r="W29" s="164"/>
-      <c r="X29" s="164"/>
-      <c r="Y29" s="164"/>
-      <c r="Z29" s="164"/>
-      <c r="AA29" s="164"/>
-      <c r="AB29" s="164"/>
-      <c r="AC29" s="164"/>
-      <c r="AD29" s="168" t="s">
+      <c r="O29" s="51"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="45"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AE29" s="168"/>
-      <c r="AF29" s="168"/>
-      <c r="AG29" s="87" t="s">
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="41"/>
+      <c r="AG29" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="AH29" s="81"/>
-      <c r="AI29" s="82"/>
-      <c r="AJ29" s="86" t="s">
+      <c r="AH29" s="151"/>
+      <c r="AI29" s="116"/>
+      <c r="AJ29" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="AK29" s="82"/>
-      <c r="AL29" s="37"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="37"/>
-      <c r="AQ29" s="37"/>
+      <c r="AK29" s="116"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="40"/>
+      <c r="AN29" s="40"/>
+      <c r="AO29" s="40"/>
+      <c r="AP29" s="40"/>
+      <c r="AQ29" s="40"/>
     </row>
     <row r="30" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="119"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="132">
+      <c r="A30" s="127"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="186">
         <v>2</v>
       </c>
-      <c r="F30" s="133"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="129" t="s">
+      <c r="F30" s="187"/>
+      <c r="G30" s="188"/>
+      <c r="H30" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="130"/>
-      <c r="J30" s="131"/>
-      <c r="K30" s="87" t="s">
+      <c r="I30" s="144"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="L30" s="81"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="81" t="s">
+      <c r="L30" s="151"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="O30" s="82"/>
-      <c r="P30" s="148"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="148"/>
-      <c r="T30" s="91"/>
-      <c r="U30" s="92"/>
-      <c r="W30" s="164"/>
-      <c r="X30" s="164"/>
-      <c r="Y30" s="164"/>
-      <c r="Z30" s="164"/>
-      <c r="AA30" s="164">
+      <c r="O30" s="116"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="45"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42">
         <v>10</v>
       </c>
-      <c r="AB30" s="164"/>
-      <c r="AC30" s="164"/>
-      <c r="AD30" s="168" t="s">
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AE30" s="168"/>
-      <c r="AF30" s="168"/>
-      <c r="AG30" s="169" t="s">
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="AH30" s="91"/>
-      <c r="AI30" s="92"/>
-      <c r="AJ30" s="91" t="s">
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="45"/>
+      <c r="AJ30" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="AK30" s="92"/>
-      <c r="AL30" s="37"/>
-      <c r="AM30" s="37"/>
-      <c r="AN30" s="37"/>
-      <c r="AO30" s="37"/>
-      <c r="AP30" s="37"/>
-      <c r="AQ30" s="37"/>
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="40"/>
+      <c r="AM30" s="40"/>
+      <c r="AN30" s="40"/>
+      <c r="AO30" s="40"/>
+      <c r="AP30" s="40"/>
+      <c r="AQ30" s="40"/>
     </row>
     <row r="31" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="119"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="129" t="s">
+      <c r="A31" s="127"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="191"/>
+      <c r="H31" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="130"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="101" t="s">
+      <c r="I31" s="144"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="L31" s="99"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="99" t="s">
+      <c r="L31" s="50"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="O31" s="100"/>
-      <c r="P31" s="148"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="148"/>
-      <c r="T31" s="91"/>
-      <c r="U31" s="92"/>
-      <c r="W31" s="164"/>
-      <c r="X31" s="164"/>
-      <c r="Y31" s="164"/>
-      <c r="Z31" s="164"/>
-      <c r="AA31" s="164"/>
-      <c r="AB31" s="164"/>
-      <c r="AC31" s="164"/>
-      <c r="AD31" s="168" t="s">
+      <c r="O31" s="51"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="45"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AE31" s="168"/>
-      <c r="AF31" s="168"/>
-      <c r="AG31" s="170" t="s">
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="137" t="s">
         <v>111</v>
       </c>
-      <c r="AH31" s="86"/>
-      <c r="AI31" s="171"/>
-      <c r="AJ31" s="86" t="s">
+      <c r="AH31" s="115"/>
+      <c r="AI31" s="138"/>
+      <c r="AJ31" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="AK31" s="82"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="37"/>
-      <c r="AO31" s="37"/>
-      <c r="AP31" s="37"/>
-      <c r="AQ31" s="37"/>
+      <c r="AK31" s="116"/>
+      <c r="AL31" s="40"/>
+      <c r="AM31" s="40"/>
+      <c r="AN31" s="40"/>
+      <c r="AO31" s="40"/>
+      <c r="AP31" s="40"/>
+      <c r="AQ31" s="40"/>
     </row>
     <row r="32" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="119"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="132">
+      <c r="A32" s="127"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="186">
         <v>3</v>
       </c>
-      <c r="F32" s="133"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="129" t="s">
+      <c r="F32" s="187"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="130"/>
-      <c r="J32" s="131"/>
-      <c r="K32" s="87" t="s">
+      <c r="I32" s="144"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="L32" s="81"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="81" t="s">
+      <c r="L32" s="151"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="O32" s="82"/>
-      <c r="P32" s="148"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="148"/>
-      <c r="T32" s="91"/>
-      <c r="U32" s="92"/>
-      <c r="W32" s="158" t="s">
+      <c r="O32" s="116"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="45"/>
+      <c r="W32" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="X32" s="159"/>
-      <c r="Y32" s="159"/>
-      <c r="Z32" s="160"/>
-      <c r="AA32" s="164">
+      <c r="X32" s="153"/>
+      <c r="Y32" s="153"/>
+      <c r="Z32" s="154"/>
+      <c r="AA32" s="42">
         <v>11</v>
       </c>
-      <c r="AB32" s="164"/>
-      <c r="AC32" s="164"/>
-      <c r="AD32" s="147" t="s">
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="42"/>
+      <c r="AD32" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AE32" s="147"/>
-      <c r="AF32" s="147"/>
-      <c r="AG32" s="190" t="s">
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="139" t="s">
         <v>113</v>
       </c>
-      <c r="AH32" s="191"/>
-      <c r="AI32" s="192"/>
-      <c r="AJ32" s="91" t="s">
+      <c r="AH32" s="140"/>
+      <c r="AI32" s="141"/>
+      <c r="AJ32" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="AK32" s="92"/>
-      <c r="AL32" s="37"/>
-      <c r="AM32" s="37"/>
-      <c r="AN32" s="37"/>
-      <c r="AO32" s="37"/>
-      <c r="AP32" s="37"/>
-      <c r="AQ32" s="37"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="40"/>
+      <c r="AM32" s="40"/>
+      <c r="AN32" s="40"/>
+      <c r="AO32" s="40"/>
+      <c r="AP32" s="40"/>
+      <c r="AQ32" s="40"/>
     </row>
     <row r="33" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="119"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="129" t="s">
+      <c r="A33" s="127"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="I33" s="130"/>
-      <c r="J33" s="131"/>
-      <c r="K33" s="101" t="s">
+      <c r="I33" s="144"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="99"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="99" t="s">
+      <c r="L33" s="50"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="O33" s="100"/>
-      <c r="P33" s="148"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="92"/>
-      <c r="W33" s="165"/>
-      <c r="X33" s="166"/>
-      <c r="Y33" s="166"/>
-      <c r="Z33" s="167"/>
-      <c r="AA33" s="164"/>
-      <c r="AB33" s="164"/>
-      <c r="AC33" s="164"/>
-      <c r="AD33" s="168" t="s">
+      <c r="O33" s="51"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="45"/>
+      <c r="W33" s="158"/>
+      <c r="X33" s="159"/>
+      <c r="Y33" s="159"/>
+      <c r="Z33" s="160"/>
+      <c r="AA33" s="42"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AE33" s="168"/>
-      <c r="AF33" s="168"/>
-      <c r="AG33" s="87" t="s">
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="AH33" s="81"/>
-      <c r="AI33" s="82"/>
-      <c r="AJ33" s="86" t="s">
+      <c r="AH33" s="151"/>
+      <c r="AI33" s="116"/>
+      <c r="AJ33" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="AK33" s="82"/>
-      <c r="AL33" s="37"/>
-      <c r="AM33" s="37"/>
-      <c r="AN33" s="37"/>
-      <c r="AO33" s="37"/>
-      <c r="AP33" s="37"/>
-      <c r="AQ33" s="37"/>
+      <c r="AK33" s="116"/>
+      <c r="AL33" s="40"/>
+      <c r="AM33" s="40"/>
+      <c r="AN33" s="40"/>
+      <c r="AO33" s="40"/>
+      <c r="AP33" s="40"/>
+      <c r="AQ33" s="40"/>
     </row>
     <row r="34" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="119"/>
-      <c r="B34" s="120"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="113">
+      <c r="A34" s="127"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="124">
         <v>4</v>
       </c>
-      <c r="F34" s="114"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="110" t="s">
+      <c r="F34" s="125"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="111"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="107" t="s">
+      <c r="I34" s="91"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="195" t="s">
         <v>93</v>
       </c>
-      <c r="L34" s="108"/>
-      <c r="M34" s="109"/>
-      <c r="N34" s="106" t="s">
+      <c r="L34" s="196"/>
+      <c r="M34" s="197"/>
+      <c r="N34" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="O34" s="103"/>
-      <c r="P34" s="148"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="148"/>
-      <c r="T34" s="91"/>
-      <c r="U34" s="92"/>
-      <c r="W34" s="165"/>
-      <c r="X34" s="166"/>
-      <c r="Y34" s="166"/>
-      <c r="Z34" s="167"/>
-      <c r="AA34" s="164">
+      <c r="O34" s="49"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="77"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="45"/>
+      <c r="W34" s="158"/>
+      <c r="X34" s="159"/>
+      <c r="Y34" s="159"/>
+      <c r="Z34" s="160"/>
+      <c r="AA34" s="42">
         <v>12</v>
       </c>
-      <c r="AB34" s="164"/>
-      <c r="AC34" s="164"/>
-      <c r="AD34" s="147" t="s">
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AE34" s="147"/>
-      <c r="AF34" s="147"/>
-      <c r="AG34" s="169" t="s">
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="AH34" s="91"/>
-      <c r="AI34" s="92"/>
-      <c r="AJ34" s="91" t="s">
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="45"/>
+      <c r="AJ34" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="AK34" s="92"/>
-      <c r="AL34" s="37"/>
-      <c r="AM34" s="37"/>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="37"/>
-      <c r="AP34" s="37"/>
-      <c r="AQ34" s="37"/>
+      <c r="AK34" s="45"/>
+      <c r="AL34" s="40"/>
+      <c r="AM34" s="40"/>
+      <c r="AN34" s="40"/>
+      <c r="AO34" s="40"/>
+      <c r="AP34" s="40"/>
+      <c r="AQ34" s="40"/>
     </row>
     <row r="35" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="116"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="129" t="s">
+      <c r="A35" s="180"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="I35" s="130"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="101" t="s">
+      <c r="I35" s="144"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="L35" s="99"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="99" t="s">
+      <c r="L35" s="50"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="O35" s="100"/>
-      <c r="P35" s="148"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="92"/>
-      <c r="S35" s="148"/>
-      <c r="T35" s="91"/>
-      <c r="U35" s="92"/>
-      <c r="W35" s="161"/>
-      <c r="X35" s="162"/>
-      <c r="Y35" s="162"/>
-      <c r="Z35" s="163"/>
-      <c r="AA35" s="164"/>
-      <c r="AB35" s="164"/>
-      <c r="AC35" s="164"/>
-      <c r="AD35" s="168" t="s">
+      <c r="O35" s="51"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="45"/>
+      <c r="W35" s="155"/>
+      <c r="X35" s="156"/>
+      <c r="Y35" s="156"/>
+      <c r="Z35" s="157"/>
+      <c r="AA35" s="42"/>
+      <c r="AB35" s="42"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AE35" s="168"/>
-      <c r="AF35" s="168"/>
-      <c r="AG35" s="170" t="s">
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="137" t="s">
         <v>117</v>
       </c>
-      <c r="AH35" s="86"/>
-      <c r="AI35" s="171"/>
-      <c r="AJ35" s="86" t="s">
+      <c r="AH35" s="115"/>
+      <c r="AI35" s="138"/>
+      <c r="AJ35" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="AK35" s="82"/>
-      <c r="AL35" s="37"/>
-      <c r="AM35" s="37"/>
-      <c r="AN35" s="37"/>
-      <c r="AO35" s="37"/>
-      <c r="AP35" s="37"/>
-      <c r="AQ35" s="37"/>
+      <c r="AK35" s="116"/>
+      <c r="AL35" s="40"/>
+      <c r="AM35" s="40"/>
+      <c r="AN35" s="40"/>
+      <c r="AO35" s="40"/>
+      <c r="AP35" s="40"/>
+      <c r="AQ35" s="40"/>
     </row>
     <row r="36" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="122" t="s">
+      <c r="A36" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="122"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="113">
+      <c r="B36" s="179"/>
+      <c r="C36" s="179"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="124">
         <v>5</v>
       </c>
-      <c r="F36" s="114"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="123" t="s">
+      <c r="F36" s="125"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="124"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="97" t="s">
+      <c r="I36" s="88"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="202" t="s">
         <v>95</v>
       </c>
-      <c r="L36" s="93"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="93" t="s">
+      <c r="L36" s="198"/>
+      <c r="M36" s="199"/>
+      <c r="N36" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="O36" s="94"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="27"/>
-      <c r="W36" s="158" t="s">
+      <c r="O36" s="199"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="81"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="83"/>
+      <c r="W36" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="X36" s="159"/>
-      <c r="Y36" s="159"/>
-      <c r="Z36" s="160"/>
-      <c r="AA36" s="158">
+      <c r="X36" s="153"/>
+      <c r="Y36" s="153"/>
+      <c r="Z36" s="154"/>
+      <c r="AA36" s="152">
         <v>13</v>
       </c>
-      <c r="AB36" s="159"/>
-      <c r="AC36" s="160"/>
-      <c r="AD36" s="187" t="s">
+      <c r="AB36" s="153"/>
+      <c r="AC36" s="154"/>
+      <c r="AD36" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="AE36" s="188"/>
-      <c r="AF36" s="189"/>
-      <c r="AG36" s="169" t="s">
+      <c r="AE36" s="133"/>
+      <c r="AF36" s="134"/>
+      <c r="AG36" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="AH36" s="91"/>
-      <c r="AI36" s="92"/>
-      <c r="AJ36" s="91" t="s">
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="45"/>
+      <c r="AJ36" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="AK36" s="92"/>
-      <c r="AL36" s="37"/>
-      <c r="AM36" s="37"/>
-      <c r="AN36" s="37"/>
-      <c r="AO36" s="37"/>
-      <c r="AP36" s="37"/>
-      <c r="AQ36" s="37"/>
+      <c r="AK36" s="45"/>
+      <c r="AL36" s="40"/>
+      <c r="AM36" s="40"/>
+      <c r="AN36" s="40"/>
+      <c r="AO36" s="40"/>
+      <c r="AP36" s="40"/>
+      <c r="AQ36" s="40"/>
     </row>
     <row r="37" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="122"/>
-      <c r="B37" s="122"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="98"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="29"/>
-      <c r="W37" s="165"/>
-      <c r="X37" s="166"/>
-      <c r="Y37" s="166"/>
-      <c r="Z37" s="167"/>
-      <c r="AA37" s="161"/>
-      <c r="AB37" s="162"/>
-      <c r="AC37" s="163"/>
-      <c r="AD37" s="172" t="s">
+      <c r="A37" s="179"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="182"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="184"/>
+      <c r="J37" s="185"/>
+      <c r="K37" s="203"/>
+      <c r="L37" s="200"/>
+      <c r="M37" s="201"/>
+      <c r="N37" s="200"/>
+      <c r="O37" s="201"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="85"/>
+      <c r="R37" s="86"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="85"/>
+      <c r="U37" s="86"/>
+      <c r="W37" s="158"/>
+      <c r="X37" s="159"/>
+      <c r="Y37" s="159"/>
+      <c r="Z37" s="160"/>
+      <c r="AA37" s="155"/>
+      <c r="AB37" s="156"/>
+      <c r="AC37" s="157"/>
+      <c r="AD37" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="AE37" s="173"/>
-      <c r="AF37" s="174"/>
-      <c r="AG37" s="170" t="s">
+      <c r="AE37" s="147"/>
+      <c r="AF37" s="148"/>
+      <c r="AG37" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="AH37" s="86"/>
-      <c r="AI37" s="171"/>
-      <c r="AJ37" s="86" t="s">
+      <c r="AH37" s="115"/>
+      <c r="AI37" s="138"/>
+      <c r="AJ37" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="AK37" s="82"/>
-      <c r="AL37" s="37"/>
-      <c r="AM37" s="37"/>
-      <c r="AN37" s="37"/>
-      <c r="AO37" s="37"/>
-      <c r="AP37" s="37"/>
-      <c r="AQ37" s="37"/>
+      <c r="AK37" s="116"/>
+      <c r="AL37" s="40"/>
+      <c r="AM37" s="40"/>
+      <c r="AN37" s="40"/>
+      <c r="AO37" s="40"/>
+      <c r="AP37" s="40"/>
+      <c r="AQ37" s="40"/>
     </row>
     <row r="38" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="122"/>
-      <c r="B38" s="122"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="113">
+      <c r="A38" s="179"/>
+      <c r="B38" s="179"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="179"/>
+      <c r="E38" s="124">
         <v>6</v>
       </c>
-      <c r="F38" s="114"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="123" t="s">
+      <c r="F38" s="125"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="I38" s="124"/>
-      <c r="J38" s="125"/>
-      <c r="K38" s="97" t="s">
+      <c r="I38" s="88"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="202" t="s">
         <v>97</v>
       </c>
-      <c r="L38" s="93"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="93" t="s">
+      <c r="L38" s="198"/>
+      <c r="M38" s="199"/>
+      <c r="N38" s="198" t="s">
         <v>96</v>
       </c>
-      <c r="O38" s="94"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="27"/>
-      <c r="W38" s="165"/>
-      <c r="X38" s="166"/>
-      <c r="Y38" s="166"/>
-      <c r="Z38" s="167"/>
-      <c r="AA38" s="158">
+      <c r="O38" s="199"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="82"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="83"/>
+      <c r="W38" s="158"/>
+      <c r="X38" s="159"/>
+      <c r="Y38" s="159"/>
+      <c r="Z38" s="160"/>
+      <c r="AA38" s="152">
         <v>14</v>
       </c>
-      <c r="AB38" s="159"/>
-      <c r="AC38" s="160"/>
-      <c r="AD38" s="147" t="s">
+      <c r="AB38" s="153"/>
+      <c r="AC38" s="154"/>
+      <c r="AD38" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AE38" s="147"/>
-      <c r="AF38" s="147"/>
-      <c r="AG38" s="169" t="s">
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="43"/>
+      <c r="AG38" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="AH38" s="91"/>
-      <c r="AI38" s="92"/>
-      <c r="AJ38" s="91" t="s">
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="45"/>
+      <c r="AJ38" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="AK38" s="92"/>
-      <c r="AL38" s="37"/>
-      <c r="AM38" s="37"/>
-      <c r="AN38" s="37"/>
-      <c r="AO38" s="37"/>
-      <c r="AP38" s="37"/>
-      <c r="AQ38" s="37"/>
+      <c r="AK38" s="45"/>
+      <c r="AL38" s="40"/>
+      <c r="AM38" s="40"/>
+      <c r="AN38" s="40"/>
+      <c r="AO38" s="40"/>
+      <c r="AP38" s="40"/>
+      <c r="AQ38" s="40"/>
     </row>
     <row r="39" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="122"/>
-      <c r="B39" s="122"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="29"/>
-      <c r="W39" s="165"/>
-      <c r="X39" s="166"/>
-      <c r="Y39" s="166"/>
-      <c r="Z39" s="167"/>
-      <c r="AA39" s="161"/>
-      <c r="AB39" s="162"/>
-      <c r="AC39" s="163"/>
-      <c r="AD39" s="147" t="s">
+      <c r="A39" s="179"/>
+      <c r="B39" s="179"/>
+      <c r="C39" s="179"/>
+      <c r="D39" s="179"/>
+      <c r="E39" s="180"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="182"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="184"/>
+      <c r="J39" s="185"/>
+      <c r="K39" s="203"/>
+      <c r="L39" s="200"/>
+      <c r="M39" s="201"/>
+      <c r="N39" s="200"/>
+      <c r="O39" s="201"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="85"/>
+      <c r="R39" s="86"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="85"/>
+      <c r="U39" s="86"/>
+      <c r="W39" s="158"/>
+      <c r="X39" s="159"/>
+      <c r="Y39" s="159"/>
+      <c r="Z39" s="160"/>
+      <c r="AA39" s="155"/>
+      <c r="AB39" s="156"/>
+      <c r="AC39" s="157"/>
+      <c r="AD39" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AE39" s="147"/>
-      <c r="AF39" s="147"/>
-      <c r="AG39" s="169" t="s">
+      <c r="AE39" s="43"/>
+      <c r="AF39" s="43"/>
+      <c r="AG39" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="AH39" s="91"/>
-      <c r="AI39" s="92"/>
-      <c r="AJ39" s="175" t="s">
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="45"/>
+      <c r="AJ39" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="AK39" s="92"/>
-      <c r="AL39" s="37"/>
-      <c r="AM39" s="37"/>
-      <c r="AN39" s="37"/>
-      <c r="AO39" s="37"/>
-      <c r="AP39" s="37"/>
-      <c r="AQ39" s="37"/>
+      <c r="AK39" s="45"/>
+      <c r="AL39" s="40"/>
+      <c r="AM39" s="40"/>
+      <c r="AN39" s="40"/>
+      <c r="AO39" s="40"/>
+      <c r="AP39" s="40"/>
+      <c r="AQ39" s="40"/>
     </row>
     <row r="40" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="122" t="s">
+      <c r="A40" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="122"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="113">
+      <c r="B40" s="179"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="179"/>
+      <c r="E40" s="124">
         <v>7</v>
       </c>
-      <c r="F40" s="114"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="129" t="s">
+      <c r="F40" s="125"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="I40" s="130"/>
-      <c r="J40" s="131"/>
-      <c r="K40" s="83" t="s">
+      <c r="I40" s="144"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="204" t="s">
         <v>98</v>
       </c>
-      <c r="L40" s="84"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="81" t="s">
+      <c r="L40" s="205"/>
+      <c r="M40" s="206"/>
+      <c r="N40" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="O40" s="82"/>
-      <c r="P40" s="148"/>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="148"/>
-      <c r="T40" s="91"/>
-      <c r="U40" s="92"/>
-      <c r="W40" s="165"/>
-      <c r="X40" s="166"/>
-      <c r="Y40" s="166"/>
-      <c r="Z40" s="167"/>
-      <c r="AA40" s="158">
+      <c r="O40" s="116"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="77"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="45"/>
+      <c r="W40" s="158"/>
+      <c r="X40" s="159"/>
+      <c r="Y40" s="159"/>
+      <c r="Z40" s="160"/>
+      <c r="AA40" s="152">
         <v>15</v>
       </c>
-      <c r="AB40" s="159"/>
-      <c r="AC40" s="160"/>
-      <c r="AD40" s="147" t="s">
+      <c r="AB40" s="153"/>
+      <c r="AC40" s="154"/>
+      <c r="AD40" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AE40" s="147"/>
-      <c r="AF40" s="147"/>
-      <c r="AG40" s="169" t="s">
+      <c r="AE40" s="43"/>
+      <c r="AF40" s="43"/>
+      <c r="AG40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="AH40" s="91"/>
-      <c r="AI40" s="92"/>
-      <c r="AJ40" s="91" t="s">
+      <c r="AH40" s="44"/>
+      <c r="AI40" s="45"/>
+      <c r="AJ40" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="AK40" s="92"/>
-      <c r="AL40" s="37"/>
-      <c r="AM40" s="37"/>
-      <c r="AN40" s="37"/>
-      <c r="AO40" s="37"/>
-      <c r="AP40" s="37"/>
-      <c r="AQ40" s="37"/>
+      <c r="AK40" s="45"/>
+      <c r="AL40" s="40"/>
+      <c r="AM40" s="40"/>
+      <c r="AN40" s="40"/>
+      <c r="AO40" s="40"/>
+      <c r="AP40" s="40"/>
+      <c r="AQ40" s="40"/>
     </row>
     <row r="41" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="122"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="110" t="s">
+      <c r="A41" s="179"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="179"/>
+      <c r="D41" s="179"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="181"/>
+      <c r="G41" s="182"/>
+      <c r="H41" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="111"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="104" t="s">
+      <c r="I41" s="91"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="L41" s="102"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="102" t="s">
+      <c r="L41" s="192"/>
+      <c r="M41" s="194"/>
+      <c r="N41" s="192" t="s">
         <v>130</v>
       </c>
-      <c r="O41" s="103"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="29"/>
-      <c r="W41" s="161"/>
-      <c r="X41" s="162"/>
-      <c r="Y41" s="162"/>
-      <c r="Z41" s="163"/>
-      <c r="AA41" s="161"/>
-      <c r="AB41" s="162"/>
-      <c r="AC41" s="163"/>
-      <c r="AD41" s="147" t="s">
+      <c r="O41" s="49"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="86"/>
+      <c r="S41" s="84"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="86"/>
+      <c r="W41" s="155"/>
+      <c r="X41" s="156"/>
+      <c r="Y41" s="156"/>
+      <c r="Z41" s="157"/>
+      <c r="AA41" s="155"/>
+      <c r="AB41" s="156"/>
+      <c r="AC41" s="157"/>
+      <c r="AD41" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AE41" s="147"/>
-      <c r="AF41" s="147"/>
-      <c r="AG41" s="169" t="s">
+      <c r="AE41" s="43"/>
+      <c r="AF41" s="43"/>
+      <c r="AG41" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="AH41" s="91"/>
-      <c r="AI41" s="92"/>
-      <c r="AJ41" s="175" t="s">
+      <c r="AH41" s="44"/>
+      <c r="AI41" s="45"/>
+      <c r="AJ41" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="AK41" s="92"/>
-      <c r="AL41" s="37"/>
-      <c r="AM41" s="37"/>
-      <c r="AN41" s="37"/>
-      <c r="AO41" s="37"/>
-      <c r="AP41" s="37"/>
-      <c r="AQ41" s="37"/>
+      <c r="AK41" s="45"/>
+      <c r="AL41" s="40"/>
+      <c r="AM41" s="40"/>
+      <c r="AN41" s="40"/>
+      <c r="AO41" s="40"/>
+      <c r="AP41" s="40"/>
+      <c r="AQ41" s="40"/>
     </row>
     <row r="42" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="122"/>
-      <c r="B42" s="122"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="113">
+      <c r="A42" s="179"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
+      <c r="E42" s="124">
         <v>8</v>
       </c>
-      <c r="F42" s="114"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="129" t="s">
+      <c r="F42" s="125"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="130"/>
-      <c r="J42" s="131"/>
-      <c r="K42" s="83" t="s">
+      <c r="I42" s="144"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="L42" s="84"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="81" t="s">
+      <c r="L42" s="205"/>
+      <c r="M42" s="206"/>
+      <c r="N42" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="O42" s="82"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="209" t="s">
+      <c r="O42" s="116"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="86"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="86"/>
+      <c r="V42" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="W42" s="210"/>
-      <c r="X42" s="210"/>
-      <c r="Y42" s="210"/>
-      <c r="Z42" s="210"/>
-      <c r="AA42" s="210"/>
-      <c r="AB42" s="210"/>
-      <c r="AC42" s="210"/>
-      <c r="AD42" s="210"/>
-      <c r="AE42" s="210"/>
-      <c r="AF42" s="210"/>
-      <c r="AG42" s="210"/>
-      <c r="AH42" s="210"/>
-      <c r="AI42" s="210"/>
-      <c r="AJ42" s="210"/>
-      <c r="AK42" s="211"/>
-      <c r="AL42" s="138" t="s">
+      <c r="W42" s="63"/>
+      <c r="X42" s="63"/>
+      <c r="Y42" s="63"/>
+      <c r="Z42" s="63"/>
+      <c r="AA42" s="63"/>
+      <c r="AB42" s="63"/>
+      <c r="AC42" s="63"/>
+      <c r="AD42" s="63"/>
+      <c r="AE42" s="63"/>
+      <c r="AF42" s="63"/>
+      <c r="AG42" s="63"/>
+      <c r="AH42" s="63"/>
+      <c r="AI42" s="63"/>
+      <c r="AJ42" s="63"/>
+      <c r="AK42" s="64"/>
+      <c r="AL42" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="AM42" s="139"/>
-      <c r="AN42" s="139"/>
-      <c r="AO42" s="139"/>
-      <c r="AP42" s="139"/>
-      <c r="AQ42" s="140"/>
+      <c r="AM42" s="162"/>
+      <c r="AN42" s="162"/>
+      <c r="AO42" s="162"/>
+      <c r="AP42" s="162"/>
+      <c r="AQ42" s="163"/>
     </row>
     <row r="43" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="122"/>
-      <c r="B43" s="122"/>
-      <c r="C43" s="122"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="123" t="s">
+      <c r="A43" s="179"/>
+      <c r="B43" s="179"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="179"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="124"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="87" t="s">
+      <c r="I43" s="88"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="150" t="s">
         <v>103</v>
       </c>
-      <c r="L43" s="81"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="86" t="s">
+      <c r="L43" s="151"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="O43" s="82"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="50"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="50"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="212"/>
-      <c r="W43" s="213"/>
-      <c r="X43" s="213"/>
-      <c r="Y43" s="213"/>
-      <c r="Z43" s="213"/>
-      <c r="AA43" s="213"/>
-      <c r="AB43" s="213"/>
-      <c r="AC43" s="213"/>
-      <c r="AD43" s="213"/>
-      <c r="AE43" s="213"/>
-      <c r="AF43" s="213"/>
-      <c r="AG43" s="213"/>
-      <c r="AH43" s="213"/>
-      <c r="AI43" s="213"/>
-      <c r="AJ43" s="213"/>
-      <c r="AK43" s="214"/>
-      <c r="AL43" s="141"/>
-      <c r="AM43" s="142"/>
-      <c r="AN43" s="142"/>
-      <c r="AO43" s="142"/>
-      <c r="AP43" s="142"/>
-      <c r="AQ43" s="143"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="84"/>
+      <c r="Q43" s="85"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="84"/>
+      <c r="T43" s="85"/>
+      <c r="U43" s="86"/>
+      <c r="V43" s="65"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="66"/>
+      <c r="AB43" s="66"/>
+      <c r="AC43" s="66"/>
+      <c r="AD43" s="66"/>
+      <c r="AE43" s="66"/>
+      <c r="AF43" s="66"/>
+      <c r="AG43" s="66"/>
+      <c r="AH43" s="66"/>
+      <c r="AI43" s="66"/>
+      <c r="AJ43" s="66"/>
+      <c r="AK43" s="67"/>
+      <c r="AL43" s="164"/>
+      <c r="AM43" s="165"/>
+      <c r="AN43" s="165"/>
+      <c r="AO43" s="165"/>
+      <c r="AP43" s="165"/>
+      <c r="AQ43" s="166"/>
     </row>
     <row r="44" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="149"/>
-      <c r="B44" s="150"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="150"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="150"/>
-      <c r="J44" s="150"/>
-      <c r="K44" s="150"/>
-      <c r="L44" s="150"/>
-      <c r="M44" s="150"/>
-      <c r="N44" s="150"/>
-      <c r="O44" s="150"/>
-      <c r="P44" s="150"/>
-      <c r="Q44" s="150"/>
-      <c r="R44" s="150"/>
-      <c r="S44" s="150"/>
-      <c r="T44" s="150"/>
-      <c r="U44" s="151"/>
-      <c r="V44" s="212"/>
-      <c r="W44" s="213"/>
-      <c r="X44" s="213"/>
-      <c r="Y44" s="213"/>
-      <c r="Z44" s="213"/>
-      <c r="AA44" s="213"/>
-      <c r="AB44" s="213"/>
-      <c r="AC44" s="213"/>
-      <c r="AD44" s="213"/>
-      <c r="AE44" s="213"/>
-      <c r="AF44" s="213"/>
-      <c r="AG44" s="213"/>
-      <c r="AH44" s="213"/>
-      <c r="AI44" s="213"/>
-      <c r="AJ44" s="213"/>
-      <c r="AK44" s="214"/>
-      <c r="AL44" s="141"/>
-      <c r="AM44" s="142"/>
-      <c r="AN44" s="142"/>
-      <c r="AO44" s="142"/>
-      <c r="AP44" s="142"/>
-      <c r="AQ44" s="143"/>
+      <c r="A44" s="170"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="171"/>
+      <c r="D44" s="171"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="171"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="171"/>
+      <c r="I44" s="171"/>
+      <c r="J44" s="171"/>
+      <c r="K44" s="171"/>
+      <c r="L44" s="171"/>
+      <c r="M44" s="171"/>
+      <c r="N44" s="171"/>
+      <c r="O44" s="171"/>
+      <c r="P44" s="171"/>
+      <c r="Q44" s="171"/>
+      <c r="R44" s="171"/>
+      <c r="S44" s="171"/>
+      <c r="T44" s="171"/>
+      <c r="U44" s="172"/>
+      <c r="V44" s="65"/>
+      <c r="W44" s="66"/>
+      <c r="X44" s="66"/>
+      <c r="Y44" s="66"/>
+      <c r="Z44" s="66"/>
+      <c r="AA44" s="66"/>
+      <c r="AB44" s="66"/>
+      <c r="AC44" s="66"/>
+      <c r="AD44" s="66"/>
+      <c r="AE44" s="66"/>
+      <c r="AF44" s="66"/>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="66"/>
+      <c r="AJ44" s="66"/>
+      <c r="AK44" s="67"/>
+      <c r="AL44" s="164"/>
+      <c r="AM44" s="165"/>
+      <c r="AN44" s="165"/>
+      <c r="AO44" s="165"/>
+      <c r="AP44" s="165"/>
+      <c r="AQ44" s="166"/>
     </row>
     <row r="45" spans="1:43" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="152"/>
-      <c r="B45" s="153"/>
-      <c r="C45" s="153"/>
-      <c r="D45" s="153"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="153"/>
-      <c r="H45" s="153"/>
-      <c r="I45" s="153"/>
-      <c r="J45" s="153"/>
-      <c r="K45" s="153"/>
-      <c r="L45" s="153"/>
-      <c r="M45" s="153"/>
-      <c r="N45" s="153"/>
-      <c r="O45" s="153"/>
-      <c r="P45" s="153"/>
-      <c r="Q45" s="153"/>
-      <c r="R45" s="153"/>
-      <c r="S45" s="153"/>
-      <c r="T45" s="153"/>
-      <c r="U45" s="154"/>
-      <c r="V45" s="212"/>
-      <c r="W45" s="213"/>
-      <c r="X45" s="213"/>
-      <c r="Y45" s="213"/>
-      <c r="Z45" s="213"/>
-      <c r="AA45" s="213"/>
-      <c r="AB45" s="213"/>
-      <c r="AC45" s="213"/>
-      <c r="AD45" s="213"/>
-      <c r="AE45" s="213"/>
-      <c r="AF45" s="213"/>
-      <c r="AG45" s="213"/>
-      <c r="AH45" s="213"/>
-      <c r="AI45" s="213"/>
-      <c r="AJ45" s="213"/>
-      <c r="AK45" s="214"/>
-      <c r="AL45" s="141"/>
-      <c r="AM45" s="142"/>
-      <c r="AN45" s="142"/>
-      <c r="AO45" s="142"/>
-      <c r="AP45" s="142"/>
-      <c r="AQ45" s="143"/>
+      <c r="A45" s="173"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
+      <c r="E45" s="174"/>
+      <c r="F45" s="174"/>
+      <c r="G45" s="174"/>
+      <c r="H45" s="174"/>
+      <c r="I45" s="174"/>
+      <c r="J45" s="174"/>
+      <c r="K45" s="174"/>
+      <c r="L45" s="174"/>
+      <c r="M45" s="174"/>
+      <c r="N45" s="174"/>
+      <c r="O45" s="174"/>
+      <c r="P45" s="174"/>
+      <c r="Q45" s="174"/>
+      <c r="R45" s="174"/>
+      <c r="S45" s="174"/>
+      <c r="T45" s="174"/>
+      <c r="U45" s="175"/>
+      <c r="V45" s="65"/>
+      <c r="W45" s="66"/>
+      <c r="X45" s="66"/>
+      <c r="Y45" s="66"/>
+      <c r="Z45" s="66"/>
+      <c r="AA45" s="66"/>
+      <c r="AB45" s="66"/>
+      <c r="AC45" s="66"/>
+      <c r="AD45" s="66"/>
+      <c r="AE45" s="66"/>
+      <c r="AF45" s="66"/>
+      <c r="AG45" s="66"/>
+      <c r="AH45" s="66"/>
+      <c r="AI45" s="66"/>
+      <c r="AJ45" s="66"/>
+      <c r="AK45" s="67"/>
+      <c r="AL45" s="164"/>
+      <c r="AM45" s="165"/>
+      <c r="AN45" s="165"/>
+      <c r="AO45" s="165"/>
+      <c r="AP45" s="165"/>
+      <c r="AQ45" s="166"/>
     </row>
     <row r="46" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="152"/>
-      <c r="B46" s="153"/>
-      <c r="C46" s="153"/>
-      <c r="D46" s="153"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="153"/>
-      <c r="G46" s="153"/>
-      <c r="H46" s="153"/>
-      <c r="I46" s="153"/>
-      <c r="J46" s="153"/>
-      <c r="K46" s="153"/>
-      <c r="L46" s="153"/>
-      <c r="M46" s="153"/>
-      <c r="N46" s="153"/>
-      <c r="O46" s="153"/>
-      <c r="P46" s="153"/>
-      <c r="Q46" s="153"/>
-      <c r="R46" s="153"/>
-      <c r="S46" s="153"/>
-      <c r="T46" s="153"/>
-      <c r="U46" s="154"/>
-      <c r="V46" s="212"/>
-      <c r="W46" s="213"/>
-      <c r="X46" s="213"/>
-      <c r="Y46" s="213"/>
-      <c r="Z46" s="213"/>
-      <c r="AA46" s="213"/>
-      <c r="AB46" s="213"/>
-      <c r="AC46" s="213"/>
-      <c r="AD46" s="213"/>
-      <c r="AE46" s="213"/>
-      <c r="AF46" s="213"/>
-      <c r="AG46" s="213"/>
-      <c r="AH46" s="213"/>
-      <c r="AI46" s="213"/>
-      <c r="AJ46" s="213"/>
-      <c r="AK46" s="214"/>
-      <c r="AL46" s="141"/>
-      <c r="AM46" s="142"/>
-      <c r="AN46" s="142"/>
-      <c r="AO46" s="142"/>
-      <c r="AP46" s="142"/>
-      <c r="AQ46" s="143"/>
+      <c r="A46" s="173"/>
+      <c r="B46" s="174"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
+      <c r="E46" s="174"/>
+      <c r="F46" s="174"/>
+      <c r="G46" s="174"/>
+      <c r="H46" s="174"/>
+      <c r="I46" s="174"/>
+      <c r="J46" s="174"/>
+      <c r="K46" s="174"/>
+      <c r="L46" s="174"/>
+      <c r="M46" s="174"/>
+      <c r="N46" s="174"/>
+      <c r="O46" s="174"/>
+      <c r="P46" s="174"/>
+      <c r="Q46" s="174"/>
+      <c r="R46" s="174"/>
+      <c r="S46" s="174"/>
+      <c r="T46" s="174"/>
+      <c r="U46" s="175"/>
+      <c r="V46" s="65"/>
+      <c r="W46" s="66"/>
+      <c r="X46" s="66"/>
+      <c r="Y46" s="66"/>
+      <c r="Z46" s="66"/>
+      <c r="AA46" s="66"/>
+      <c r="AB46" s="66"/>
+      <c r="AC46" s="66"/>
+      <c r="AD46" s="66"/>
+      <c r="AE46" s="66"/>
+      <c r="AF46" s="66"/>
+      <c r="AG46" s="66"/>
+      <c r="AH46" s="66"/>
+      <c r="AI46" s="66"/>
+      <c r="AJ46" s="66"/>
+      <c r="AK46" s="67"/>
+      <c r="AL46" s="164"/>
+      <c r="AM46" s="165"/>
+      <c r="AN46" s="165"/>
+      <c r="AO46" s="165"/>
+      <c r="AP46" s="165"/>
+      <c r="AQ46" s="166"/>
     </row>
     <row r="47" spans="1:43" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="155"/>
-      <c r="B47" s="156"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="156"/>
-      <c r="E47" s="156"/>
-      <c r="F47" s="156"/>
-      <c r="G47" s="156"/>
-      <c r="H47" s="156"/>
-      <c r="I47" s="156"/>
-      <c r="J47" s="156"/>
-      <c r="K47" s="156"/>
-      <c r="L47" s="156"/>
-      <c r="M47" s="156"/>
-      <c r="N47" s="156"/>
-      <c r="O47" s="156"/>
-      <c r="P47" s="156"/>
-      <c r="Q47" s="156"/>
-      <c r="R47" s="156"/>
-      <c r="S47" s="156"/>
-      <c r="T47" s="156"/>
-      <c r="U47" s="157"/>
-      <c r="V47" s="215"/>
-      <c r="W47" s="216"/>
-      <c r="X47" s="216"/>
-      <c r="Y47" s="216"/>
-      <c r="Z47" s="216"/>
-      <c r="AA47" s="216"/>
-      <c r="AB47" s="216"/>
-      <c r="AC47" s="216"/>
-      <c r="AD47" s="216"/>
-      <c r="AE47" s="216"/>
-      <c r="AF47" s="216"/>
-      <c r="AG47" s="216"/>
-      <c r="AH47" s="216"/>
-      <c r="AI47" s="216"/>
-      <c r="AJ47" s="216"/>
-      <c r="AK47" s="217"/>
-      <c r="AL47" s="144"/>
-      <c r="AM47" s="145"/>
-      <c r="AN47" s="145"/>
-      <c r="AO47" s="145"/>
-      <c r="AP47" s="145"/>
-      <c r="AQ47" s="146"/>
+      <c r="A47" s="176"/>
+      <c r="B47" s="177"/>
+      <c r="C47" s="177"/>
+      <c r="D47" s="177"/>
+      <c r="E47" s="177"/>
+      <c r="F47" s="177"/>
+      <c r="G47" s="177"/>
+      <c r="H47" s="177"/>
+      <c r="I47" s="177"/>
+      <c r="J47" s="177"/>
+      <c r="K47" s="177"/>
+      <c r="L47" s="177"/>
+      <c r="M47" s="177"/>
+      <c r="N47" s="177"/>
+      <c r="O47" s="177"/>
+      <c r="P47" s="177"/>
+      <c r="Q47" s="177"/>
+      <c r="R47" s="177"/>
+      <c r="S47" s="177"/>
+      <c r="T47" s="177"/>
+      <c r="U47" s="178"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="69"/>
+      <c r="X47" s="69"/>
+      <c r="Y47" s="69"/>
+      <c r="Z47" s="69"/>
+      <c r="AA47" s="69"/>
+      <c r="AB47" s="69"/>
+      <c r="AC47" s="69"/>
+      <c r="AD47" s="69"/>
+      <c r="AE47" s="69"/>
+      <c r="AF47" s="69"/>
+      <c r="AG47" s="69"/>
+      <c r="AH47" s="69"/>
+      <c r="AI47" s="69"/>
+      <c r="AJ47" s="69"/>
+      <c r="AK47" s="70"/>
+      <c r="AL47" s="167"/>
+      <c r="AM47" s="168"/>
+      <c r="AN47" s="168"/>
+      <c r="AO47" s="168"/>
+      <c r="AP47" s="168"/>
+      <c r="AQ47" s="169"/>
     </row>
     <row r="48" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="207" t="s">
+      <c r="A48" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="65" t="s">
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="58" t="s">
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58" t="s">
+      <c r="M48" s="93"/>
+      <c r="N48" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
+      <c r="O48" s="93"/>
+      <c r="P48" s="93"/>
+      <c r="Q48" s="93"/>
       <c r="R48" s="4"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
@@ -5500,23 +5258,23 @@
       <c r="AQ48" s="3"/>
     </row>
     <row r="49" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="208"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="193"/>
-      <c r="M49" s="193"/>
-      <c r="N49" s="193"/>
-      <c r="O49" s="193"/>
-      <c r="P49" s="193"/>
-      <c r="Q49" s="193"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="94"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="94"/>
+      <c r="O49" s="94"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="94"/>
       <c r="R49" s="4"/>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
@@ -5545,29 +5303,29 @@
       <c r="AQ49" s="5"/>
     </row>
     <row r="50" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="185">
+      <c r="A50" s="56">
         <v>1</v>
       </c>
-      <c r="B50" s="229" t="s">
+      <c r="B50" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="230"/>
-      <c r="D50" s="230"/>
-      <c r="E50" s="230"/>
-      <c r="F50" s="230"/>
-      <c r="G50" s="230"/>
-      <c r="H50" s="51" t="s">
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="27"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="81"/>
+      <c r="O50" s="82"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="83"/>
       <c r="R50" s="4"/>
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
@@ -5596,23 +5354,23 @@
       <c r="AQ50" s="5"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="186"/>
-      <c r="B51" s="232"/>
-      <c r="C51" s="233"/>
-      <c r="D51" s="233"/>
-      <c r="E51" s="233"/>
-      <c r="F51" s="233"/>
-      <c r="G51" s="233"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="49"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="112"/>
+      <c r="O51" s="113"/>
+      <c r="P51" s="113"/>
+      <c r="Q51" s="114"/>
       <c r="R51" s="4"/>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
@@ -5641,29 +5399,29 @@
       <c r="AQ51" s="5"/>
     </row>
     <row r="52" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="185">
+      <c r="A52" s="56">
         <v>2</v>
       </c>
-      <c r="B52" s="229" t="s">
+      <c r="B52" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="230"/>
-      <c r="D52" s="230"/>
-      <c r="E52" s="230"/>
-      <c r="F52" s="230"/>
-      <c r="G52" s="230"/>
-      <c r="H52" s="51" t="s">
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="49"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="112"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="113"/>
+      <c r="Q52" s="114"/>
       <c r="R52" s="4"/>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
@@ -5692,23 +5450,23 @@
       <c r="AQ52" s="5"/>
     </row>
     <row r="53" spans="1:43" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="186"/>
-      <c r="B53" s="232"/>
-      <c r="C53" s="233"/>
-      <c r="D53" s="233"/>
-      <c r="E53" s="233"/>
-      <c r="F53" s="233"/>
-      <c r="G53" s="233"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="49"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="112"/>
+      <c r="O53" s="113"/>
+      <c r="P53" s="113"/>
+      <c r="Q53" s="114"/>
       <c r="R53" s="4"/>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
@@ -5737,29 +5495,29 @@
       <c r="AQ53" s="5"/>
     </row>
     <row r="54" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="185">
+      <c r="A54" s="56">
         <v>3</v>
       </c>
-      <c r="B54" s="229" t="s">
+      <c r="B54" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="230"/>
-      <c r="D54" s="230"/>
-      <c r="E54" s="230"/>
-      <c r="F54" s="230"/>
-      <c r="G54" s="230"/>
-      <c r="H54" s="51" t="s">
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="49"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="112"/>
+      <c r="O54" s="113"/>
+      <c r="P54" s="113"/>
+      <c r="Q54" s="114"/>
       <c r="R54" s="4"/>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
@@ -5788,23 +5546,23 @@
       <c r="AQ54" s="5"/>
     </row>
     <row r="55" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="186"/>
-      <c r="B55" s="232"/>
-      <c r="C55" s="233"/>
-      <c r="D55" s="233"/>
-      <c r="E55" s="233"/>
-      <c r="F55" s="233"/>
-      <c r="G55" s="233"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="49"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="112"/>
+      <c r="O55" s="113"/>
+      <c r="P55" s="113"/>
+      <c r="Q55" s="114"/>
       <c r="R55" s="4"/>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
@@ -5833,29 +5591,29 @@
       <c r="AQ55" s="5"/>
     </row>
     <row r="56" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="185">
+      <c r="A56" s="56">
         <v>4</v>
       </c>
-      <c r="B56" s="229" t="s">
+      <c r="B56" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="230"/>
-      <c r="D56" s="230"/>
-      <c r="E56" s="230"/>
-      <c r="F56" s="230"/>
-      <c r="G56" s="230"/>
-      <c r="H56" s="51" t="s">
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="49"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="112"/>
+      <c r="O56" s="113"/>
+      <c r="P56" s="113"/>
+      <c r="Q56" s="114"/>
       <c r="R56" s="4"/>
       <c r="S56" s="8"/>
       <c r="T56" s="8"/>
@@ -5884,23 +5642,23 @@
       <c r="AQ56" s="5"/>
     </row>
     <row r="57" spans="1:43" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="206"/>
-      <c r="B57" s="236"/>
-      <c r="C57" s="237"/>
-      <c r="D57" s="237"/>
-      <c r="E57" s="237"/>
-      <c r="F57" s="237"/>
-      <c r="G57" s="237"/>
-      <c r="H57" s="238"/>
-      <c r="I57" s="239"/>
-      <c r="J57" s="239"/>
-      <c r="K57" s="240"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="49"/>
+      <c r="A57" s="109"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="112"/>
+      <c r="M57" s="114"/>
+      <c r="N57" s="112"/>
+      <c r="O57" s="113"/>
+      <c r="P57" s="113"/>
+      <c r="Q57" s="114"/>
       <c r="R57" s="4"/>
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
@@ -5929,23 +5687,23 @@
       <c r="AQ57" s="5"/>
     </row>
     <row r="58" spans="1:43" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="186"/>
-      <c r="B58" s="232"/>
-      <c r="C58" s="233"/>
-      <c r="D58" s="233"/>
-      <c r="E58" s="233"/>
-      <c r="F58" s="233"/>
-      <c r="G58" s="233"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="50"/>
-      <c r="P58" s="50"/>
-      <c r="Q58" s="29"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="86"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="85"/>
+      <c r="P58" s="85"/>
+      <c r="Q58" s="86"/>
       <c r="R58" s="6"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
@@ -5974,33 +5732,33 @@
       <c r="AQ58" s="7"/>
     </row>
     <row r="59" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="65" t="s">
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="193" t="s">
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="M59" s="193"/>
-      <c r="N59" s="193" t="s">
+      <c r="M59" s="94"/>
+      <c r="N59" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O59" s="193"/>
-      <c r="P59" s="193"/>
-      <c r="Q59" s="193"/>
+      <c r="O59" s="94"/>
+      <c r="P59" s="94"/>
+      <c r="Q59" s="94"/>
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
       <c r="T59" s="10"/>
@@ -6029,23 +5787,23 @@
       <c r="AQ59" s="3"/>
     </row>
     <row r="60" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="72"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="193"/>
-      <c r="M60" s="193"/>
-      <c r="N60" s="193"/>
-      <c r="O60" s="193"/>
-      <c r="P60" s="193"/>
-      <c r="Q60" s="193"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="94"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="94"/>
+      <c r="O60" s="94"/>
+      <c r="P60" s="94"/>
+      <c r="Q60" s="94"/>
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
@@ -6074,29 +5832,29 @@
       <c r="AQ60" s="5"/>
     </row>
     <row r="61" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="227">
+      <c r="A61" s="53">
         <v>1</v>
       </c>
-      <c r="B61" s="229" t="s">
+      <c r="B61" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="230"/>
-      <c r="D61" s="230"/>
-      <c r="E61" s="230"/>
-      <c r="F61" s="230"/>
-      <c r="G61" s="231"/>
-      <c r="H61" s="51" t="s">
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="204"/>
-      <c r="M61" s="204"/>
-      <c r="N61" s="195"/>
-      <c r="O61" s="196"/>
-      <c r="P61" s="196"/>
-      <c r="Q61" s="197"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="58"/>
+      <c r="O61" s="101"/>
+      <c r="P61" s="101"/>
+      <c r="Q61" s="59"/>
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
@@ -6125,23 +5883,23 @@
       <c r="AQ61" s="5"/>
     </row>
     <row r="62" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="228"/>
-      <c r="B62" s="232"/>
-      <c r="C62" s="233"/>
-      <c r="D62" s="233"/>
-      <c r="E62" s="233"/>
-      <c r="F62" s="233"/>
-      <c r="G62" s="234"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="204"/>
-      <c r="M62" s="204"/>
-      <c r="N62" s="198"/>
-      <c r="O62" s="199"/>
-      <c r="P62" s="199"/>
-      <c r="Q62" s="200"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="102"/>
+      <c r="O62" s="103"/>
+      <c r="P62" s="103"/>
+      <c r="Q62" s="104"/>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
       <c r="T62" s="8"/>
@@ -6170,29 +5928,29 @@
       <c r="AQ62" s="5"/>
     </row>
     <row r="63" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="227">
+      <c r="A63" s="53">
         <v>2</v>
       </c>
-      <c r="B63" s="229" t="s">
+      <c r="B63" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="230"/>
-      <c r="D63" s="230"/>
-      <c r="E63" s="230"/>
-      <c r="F63" s="230"/>
-      <c r="G63" s="231"/>
-      <c r="H63" s="51" t="s">
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="204"/>
-      <c r="M63" s="204"/>
-      <c r="N63" s="198"/>
-      <c r="O63" s="199"/>
-      <c r="P63" s="199"/>
-      <c r="Q63" s="200"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="102"/>
+      <c r="O63" s="103"/>
+      <c r="P63" s="103"/>
+      <c r="Q63" s="104"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
@@ -6221,23 +5979,23 @@
       <c r="AQ63" s="5"/>
     </row>
     <row r="64" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="228"/>
-      <c r="B64" s="232"/>
-      <c r="C64" s="233"/>
-      <c r="D64" s="233"/>
-      <c r="E64" s="233"/>
-      <c r="F64" s="233"/>
-      <c r="G64" s="234"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="204"/>
-      <c r="M64" s="204"/>
-      <c r="N64" s="198"/>
-      <c r="O64" s="199"/>
-      <c r="P64" s="199"/>
-      <c r="Q64" s="200"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="102"/>
+      <c r="O64" s="103"/>
+      <c r="P64" s="103"/>
+      <c r="Q64" s="104"/>
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
       <c r="T64" s="8"/>
@@ -6266,29 +6024,29 @@
       <c r="AQ64" s="5"/>
     </row>
     <row r="65" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="227">
+      <c r="A65" s="53">
         <v>3</v>
       </c>
-      <c r="B65" s="229" t="s">
+      <c r="B65" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="230"/>
-      <c r="D65" s="230"/>
-      <c r="E65" s="230"/>
-      <c r="F65" s="230"/>
-      <c r="G65" s="231"/>
-      <c r="H65" s="51" t="s">
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="204"/>
-      <c r="M65" s="204"/>
-      <c r="N65" s="198"/>
-      <c r="O65" s="199"/>
-      <c r="P65" s="199"/>
-      <c r="Q65" s="200"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="102"/>
+      <c r="O65" s="103"/>
+      <c r="P65" s="103"/>
+      <c r="Q65" s="104"/>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
@@ -6317,23 +6075,23 @@
       <c r="AQ65" s="5"/>
     </row>
     <row r="66" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="228"/>
-      <c r="B66" s="232"/>
-      <c r="C66" s="233"/>
-      <c r="D66" s="233"/>
-      <c r="E66" s="233"/>
-      <c r="F66" s="233"/>
-      <c r="G66" s="234"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="204"/>
-      <c r="M66" s="204"/>
-      <c r="N66" s="198"/>
-      <c r="O66" s="199"/>
-      <c r="P66" s="199"/>
-      <c r="Q66" s="200"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="102"/>
+      <c r="O66" s="103"/>
+      <c r="P66" s="103"/>
+      <c r="Q66" s="104"/>
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
@@ -6362,29 +6120,29 @@
       <c r="AQ66" s="5"/>
     </row>
     <row r="67" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="185">
+      <c r="A67" s="56">
         <v>4</v>
       </c>
-      <c r="B67" s="229" t="s">
+      <c r="B67" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="230"/>
-      <c r="D67" s="230"/>
-      <c r="E67" s="230"/>
-      <c r="F67" s="230"/>
-      <c r="G67" s="231"/>
-      <c r="H67" s="51" t="s">
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="195"/>
-      <c r="M67" s="197"/>
-      <c r="N67" s="198"/>
-      <c r="O67" s="199"/>
-      <c r="P67" s="199"/>
-      <c r="Q67" s="200"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="58"/>
+      <c r="M67" s="59"/>
+      <c r="N67" s="102"/>
+      <c r="O67" s="103"/>
+      <c r="P67" s="103"/>
+      <c r="Q67" s="104"/>
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
       <c r="T67" s="8"/>
@@ -6413,23 +6171,23 @@
       <c r="AQ67" s="5"/>
     </row>
     <row r="68" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="186"/>
-      <c r="B68" s="232"/>
-      <c r="C68" s="233"/>
-      <c r="D68" s="233"/>
-      <c r="E68" s="233"/>
-      <c r="F68" s="233"/>
-      <c r="G68" s="234"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="201"/>
-      <c r="M68" s="203"/>
-      <c r="N68" s="198"/>
-      <c r="O68" s="199"/>
-      <c r="P68" s="199"/>
-      <c r="Q68" s="200"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="102"/>
+      <c r="O68" s="103"/>
+      <c r="P68" s="103"/>
+      <c r="Q68" s="104"/>
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
       <c r="T68" s="8"/>
@@ -6458,29 +6216,29 @@
       <c r="AQ68" s="5"/>
     </row>
     <row r="69" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="227">
+      <c r="A69" s="53">
         <v>5</v>
       </c>
-      <c r="B69" s="229" t="s">
+      <c r="B69" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="230"/>
-      <c r="D69" s="230"/>
-      <c r="E69" s="230"/>
-      <c r="F69" s="230"/>
-      <c r="G69" s="231"/>
-      <c r="H69" s="51" t="s">
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="204"/>
-      <c r="M69" s="204"/>
-      <c r="N69" s="198"/>
-      <c r="O69" s="199"/>
-      <c r="P69" s="199"/>
-      <c r="Q69" s="200"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="102"/>
+      <c r="O69" s="103"/>
+      <c r="P69" s="103"/>
+      <c r="Q69" s="104"/>
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
       <c r="T69" s="8"/>
@@ -6509,23 +6267,23 @@
       <c r="AQ69" s="5"/>
     </row>
     <row r="70" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="228"/>
-      <c r="B70" s="232"/>
-      <c r="C70" s="233"/>
-      <c r="D70" s="233"/>
-      <c r="E70" s="233"/>
-      <c r="F70" s="233"/>
-      <c r="G70" s="234"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="55"/>
-      <c r="K70" s="56"/>
-      <c r="L70" s="204"/>
-      <c r="M70" s="204"/>
-      <c r="N70" s="201"/>
-      <c r="O70" s="202"/>
-      <c r="P70" s="202"/>
-      <c r="Q70" s="203"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="55"/>
+      <c r="M70" s="55"/>
+      <c r="N70" s="60"/>
+      <c r="O70" s="105"/>
+      <c r="P70" s="105"/>
+      <c r="Q70" s="61"/>
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
@@ -6554,82 +6312,82 @@
       <c r="AQ70" s="7"/>
     </row>
     <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="73" t="s">
+      <c r="A71" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="74"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="74"/>
-      <c r="H71" s="74"/>
-      <c r="I71" s="74"/>
-      <c r="J71" s="74"/>
-      <c r="K71" s="74"/>
-      <c r="L71" s="74"/>
-      <c r="M71" s="74"/>
-      <c r="N71" s="74"/>
-      <c r="O71" s="74"/>
-      <c r="P71" s="74"/>
-      <c r="Q71" s="75"/>
-      <c r="R71" s="76" t="s">
+      <c r="B71" s="107"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="107"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="107"/>
+      <c r="H71" s="107"/>
+      <c r="I71" s="107"/>
+      <c r="J71" s="107"/>
+      <c r="K71" s="107"/>
+      <c r="L71" s="107"/>
+      <c r="M71" s="107"/>
+      <c r="N71" s="107"/>
+      <c r="O71" s="107"/>
+      <c r="P71" s="107"/>
+      <c r="Q71" s="108"/>
+      <c r="R71" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="S71" s="77"/>
-      <c r="T71" s="77"/>
-      <c r="U71" s="77"/>
-      <c r="V71" s="77"/>
-      <c r="W71" s="77"/>
-      <c r="X71" s="77"/>
-      <c r="Y71" s="77"/>
-      <c r="Z71" s="77"/>
-      <c r="AA71" s="77"/>
-      <c r="AB71" s="77"/>
-      <c r="AC71" s="77"/>
-      <c r="AD71" s="77"/>
-      <c r="AE71" s="77"/>
-      <c r="AF71" s="77"/>
-      <c r="AG71" s="77"/>
-      <c r="AH71" s="77"/>
-      <c r="AI71" s="77"/>
-      <c r="AJ71" s="77"/>
-      <c r="AK71" s="77"/>
-      <c r="AL71" s="77"/>
-      <c r="AM71" s="77"/>
-      <c r="AN71" s="77"/>
-      <c r="AO71" s="77"/>
-      <c r="AP71" s="77"/>
-      <c r="AQ71" s="78"/>
+      <c r="S71" s="99"/>
+      <c r="T71" s="99"/>
+      <c r="U71" s="99"/>
+      <c r="V71" s="99"/>
+      <c r="W71" s="99"/>
+      <c r="X71" s="99"/>
+      <c r="Y71" s="99"/>
+      <c r="Z71" s="99"/>
+      <c r="AA71" s="99"/>
+      <c r="AB71" s="99"/>
+      <c r="AC71" s="99"/>
+      <c r="AD71" s="99"/>
+      <c r="AE71" s="99"/>
+      <c r="AF71" s="99"/>
+      <c r="AG71" s="99"/>
+      <c r="AH71" s="99"/>
+      <c r="AI71" s="99"/>
+      <c r="AJ71" s="99"/>
+      <c r="AK71" s="99"/>
+      <c r="AL71" s="99"/>
+      <c r="AM71" s="99"/>
+      <c r="AN71" s="99"/>
+      <c r="AO71" s="99"/>
+      <c r="AP71" s="99"/>
+      <c r="AQ71" s="100"/>
     </row>
     <row r="72" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="71" t="s">
+      <c r="A72" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="65" t="s">
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="I72" s="66"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="67"/>
-      <c r="L72" s="40" t="s">
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="M72" s="42"/>
-      <c r="N72" s="40" t="s">
+      <c r="M72" s="209"/>
+      <c r="N72" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="42"/>
+      <c r="O72" s="212"/>
+      <c r="P72" s="212"/>
+      <c r="Q72" s="209"/>
       <c r="R72" s="2"/>
       <c r="S72" s="10"/>
       <c r="T72" s="10"/>
@@ -6658,23 +6416,23 @@
       <c r="AQ72" s="3"/>
     </row>
     <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="72"/>
-      <c r="B73" s="68"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="69"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="69"/>
-      <c r="J73" s="69"/>
-      <c r="K73" s="70"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="44"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="45"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="210"/>
+      <c r="M73" s="211"/>
+      <c r="N73" s="210"/>
+      <c r="O73" s="213"/>
+      <c r="P73" s="213"/>
+      <c r="Q73" s="211"/>
       <c r="R73" s="4"/>
       <c r="S73" s="8"/>
       <c r="T73" s="8"/>
@@ -6703,29 +6461,29 @@
       <c r="AQ73" s="5"/>
     </row>
     <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="14">
+      <c r="A74" s="121">
         <v>1</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="51" t="s">
+      <c r="C74" s="215"/>
+      <c r="D74" s="215"/>
+      <c r="E74" s="215"/>
+      <c r="F74" s="215"/>
+      <c r="G74" s="216"/>
+      <c r="H74" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="53"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="81"/>
+      <c r="M74" s="83"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40"/>
       <c r="R74" s="4"/>
       <c r="S74" s="8"/>
       <c r="T74" s="8"/>
@@ -6754,23 +6512,23 @@
       <c r="AQ74" s="5"/>
     </row>
     <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
-      <c r="K75" s="56"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
+      <c r="A75" s="123"/>
+      <c r="B75" s="217"/>
+      <c r="C75" s="218"/>
+      <c r="D75" s="218"/>
+      <c r="E75" s="218"/>
+      <c r="F75" s="218"/>
+      <c r="G75" s="219"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="84"/>
+      <c r="M75" s="86"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
       <c r="R75" s="4"/>
       <c r="S75" s="8"/>
       <c r="T75" s="8"/>
@@ -6799,29 +6557,29 @@
       <c r="AQ75" s="5"/>
     </row>
     <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14">
+      <c r="A76" s="121">
         <v>2</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="79"/>
-      <c r="H76" s="51" t="s">
+      <c r="C76" s="215"/>
+      <c r="D76" s="215"/>
+      <c r="E76" s="215"/>
+      <c r="F76" s="215"/>
+      <c r="G76" s="216"/>
+      <c r="H76" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="81"/>
+      <c r="M76" s="83"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
       <c r="R76" s="4"/>
       <c r="S76" s="8"/>
       <c r="T76" s="8"/>
@@ -6850,23 +6608,23 @@
       <c r="AQ76" s="5"/>
     </row>
     <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="80"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="55"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="37"/>
+      <c r="A77" s="123"/>
+      <c r="B77" s="217"/>
+      <c r="C77" s="218"/>
+      <c r="D77" s="218"/>
+      <c r="E77" s="218"/>
+      <c r="F77" s="218"/>
+      <c r="G77" s="219"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="84"/>
+      <c r="M77" s="86"/>
+      <c r="N77" s="40"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="40"/>
       <c r="R77" s="4"/>
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
@@ -6895,29 +6653,29 @@
       <c r="AQ77" s="5"/>
     </row>
     <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="36">
+      <c r="A78" s="220">
         <v>3</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="214" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="79"/>
-      <c r="H78" s="51" t="s">
+      <c r="C78" s="215"/>
+      <c r="D78" s="215"/>
+      <c r="E78" s="215"/>
+      <c r="F78" s="215"/>
+      <c r="G78" s="216"/>
+      <c r="H78" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I78" s="52"/>
-      <c r="J78" s="52"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="37"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
       <c r="R78" s="4"/>
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
@@ -6946,23 +6704,23 @@
       <c r="AQ78" s="5"/>
     </row>
     <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="36"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="80"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="37"/>
-      <c r="O79" s="37"/>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="37"/>
+      <c r="A79" s="220"/>
+      <c r="B79" s="217"/>
+      <c r="C79" s="218"/>
+      <c r="D79" s="218"/>
+      <c r="E79" s="218"/>
+      <c r="F79" s="218"/>
+      <c r="G79" s="219"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="40"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="40"/>
       <c r="R79" s="4"/>
       <c r="S79" s="8"/>
       <c r="T79" s="8"/>
@@ -6991,29 +6749,29 @@
       <c r="AQ79" s="5"/>
     </row>
     <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="36">
+      <c r="A80" s="220">
         <v>4</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="214" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="79"/>
-      <c r="H80" s="51" t="s">
+      <c r="C80" s="215"/>
+      <c r="D80" s="215"/>
+      <c r="E80" s="215"/>
+      <c r="F80" s="215"/>
+      <c r="G80" s="216"/>
+      <c r="H80" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40"/>
       <c r="R80" s="4"/>
       <c r="S80" s="8"/>
       <c r="T80" s="8"/>
@@ -7042,23 +6800,23 @@
       <c r="AQ80" s="5"/>
     </row>
     <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="36"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="80"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="37"/>
+      <c r="A81" s="220"/>
+      <c r="B81" s="217"/>
+      <c r="C81" s="218"/>
+      <c r="D81" s="218"/>
+      <c r="E81" s="218"/>
+      <c r="F81" s="218"/>
+      <c r="G81" s="219"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
       <c r="R81" s="4"/>
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
@@ -7087,29 +6845,29 @@
       <c r="AQ81" s="5"/>
     </row>
     <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="36">
+      <c r="A82" s="220">
         <v>5</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="214" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="51" t="s">
+      <c r="C82" s="215"/>
+      <c r="D82" s="215"/>
+      <c r="E82" s="215"/>
+      <c r="F82" s="215"/>
+      <c r="G82" s="215"/>
+      <c r="H82" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I82" s="52"/>
-      <c r="J82" s="52"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="37"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="37"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40"/>
       <c r="R82" s="4"/>
       <c r="S82" s="8"/>
       <c r="T82" s="8"/>
@@ -7138,23 +6896,23 @@
       <c r="AQ82" s="5"/>
     </row>
     <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="36"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55"/>
-      <c r="K83" s="56"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="37"/>
-      <c r="N83" s="37"/>
-      <c r="O83" s="37"/>
-      <c r="P83" s="37"/>
-      <c r="Q83" s="37"/>
+      <c r="A83" s="220"/>
+      <c r="B83" s="217"/>
+      <c r="C83" s="218"/>
+      <c r="D83" s="218"/>
+      <c r="E83" s="218"/>
+      <c r="F83" s="218"/>
+      <c r="G83" s="218"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
       <c r="R83" s="4"/>
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
@@ -7183,29 +6941,29 @@
       <c r="AQ83" s="5"/>
     </row>
     <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="36">
+      <c r="A84" s="220">
         <v>6</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="51" t="s">
+      <c r="C84" s="215"/>
+      <c r="D84" s="215"/>
+      <c r="E84" s="215"/>
+      <c r="F84" s="215"/>
+      <c r="G84" s="215"/>
+      <c r="H84" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I84" s="52"/>
-      <c r="J84" s="52"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="37"/>
-      <c r="O84" s="37"/>
-      <c r="P84" s="37"/>
-      <c r="Q84" s="37"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="40"/>
       <c r="R84" s="4"/>
       <c r="S84" s="8"/>
       <c r="T84" s="8"/>
@@ -7234,23 +6992,23 @@
       <c r="AQ84" s="5"/>
     </row>
     <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="36"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="55"/>
-      <c r="K85" s="56"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="37"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="37"/>
-      <c r="Q85" s="37"/>
+      <c r="A85" s="220"/>
+      <c r="B85" s="217"/>
+      <c r="C85" s="218"/>
+      <c r="D85" s="218"/>
+      <c r="E85" s="218"/>
+      <c r="F85" s="218"/>
+      <c r="G85" s="218"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="40"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="40"/>
       <c r="R85" s="4"/>
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
@@ -7279,29 +7037,29 @@
       <c r="AQ85" s="5"/>
     </row>
     <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="36">
+      <c r="A86" s="220">
         <v>7</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="214" t="s">
         <v>74</v>
       </c>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="51" t="s">
+      <c r="C86" s="215"/>
+      <c r="D86" s="215"/>
+      <c r="E86" s="215"/>
+      <c r="F86" s="215"/>
+      <c r="G86" s="215"/>
+      <c r="H86" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I86" s="52"/>
-      <c r="J86" s="52"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
       <c r="R86" s="4"/>
       <c r="S86" s="8"/>
       <c r="T86" s="8"/>
@@ -7330,23 +7088,23 @@
       <c r="AQ86" s="5"/>
     </row>
     <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="36"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="55"/>
-      <c r="J87" s="55"/>
-      <c r="K87" s="56"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="37"/>
-      <c r="N87" s="37"/>
-      <c r="O87" s="37"/>
-      <c r="P87" s="37"/>
-      <c r="Q87" s="37"/>
+      <c r="A87" s="220"/>
+      <c r="B87" s="217"/>
+      <c r="C87" s="218"/>
+      <c r="D87" s="218"/>
+      <c r="E87" s="218"/>
+      <c r="F87" s="218"/>
+      <c r="G87" s="218"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="40"/>
       <c r="R87" s="4"/>
       <c r="S87" s="8"/>
       <c r="T87" s="8"/>
@@ -7375,29 +7133,29 @@
       <c r="AQ87" s="5"/>
     </row>
     <row r="88" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="14">
+      <c r="A88" s="121">
         <v>8</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="214" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="20" t="s">
+      <c r="C88" s="215"/>
+      <c r="D88" s="215"/>
+      <c r="E88" s="215"/>
+      <c r="F88" s="215"/>
+      <c r="G88" s="215"/>
+      <c r="H88" s="221" t="s">
         <v>76</v>
       </c>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
+      <c r="I88" s="222"/>
+      <c r="J88" s="222"/>
+      <c r="K88" s="223"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="40"/>
       <c r="R88" s="4"/>
       <c r="S88" s="8"/>
       <c r="T88" s="8"/>
@@ -7426,23 +7184,23 @@
       <c r="AQ88" s="5"/>
     </row>
     <row r="89" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="15"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-      <c r="Q89" s="37"/>
+      <c r="A89" s="123"/>
+      <c r="B89" s="217"/>
+      <c r="C89" s="218"/>
+      <c r="D89" s="218"/>
+      <c r="E89" s="218"/>
+      <c r="F89" s="218"/>
+      <c r="G89" s="218"/>
+      <c r="H89" s="224"/>
+      <c r="I89" s="225"/>
+      <c r="J89" s="225"/>
+      <c r="K89" s="226"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="40"/>
       <c r="R89" s="4"/>
       <c r="S89" s="8"/>
       <c r="T89" s="8"/>
@@ -7471,33 +7229,33 @@
       <c r="AQ89" s="5"/>
     </row>
     <row r="90" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="71" t="s">
+      <c r="A90" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B90" s="59" t="s">
+      <c r="B90" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="65" t="s">
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="I90" s="66"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="67"/>
-      <c r="L90" s="40" t="s">
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="M90" s="42"/>
-      <c r="N90" s="40" t="s">
+      <c r="M90" s="209"/>
+      <c r="N90" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
-      <c r="Q90" s="42"/>
+      <c r="O90" s="212"/>
+      <c r="P90" s="212"/>
+      <c r="Q90" s="209"/>
       <c r="R90" s="10"/>
       <c r="S90" s="10"/>
       <c r="T90" s="10"/>
@@ -7526,23 +7284,23 @@
       <c r="AQ90" s="3"/>
     </row>
     <row r="91" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="72"/>
-      <c r="B91" s="68"/>
-      <c r="C91" s="69"/>
-      <c r="D91" s="69"/>
-      <c r="E91" s="69"/>
-      <c r="F91" s="69"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="68"/>
-      <c r="I91" s="69"/>
-      <c r="J91" s="69"/>
-      <c r="K91" s="70"/>
-      <c r="L91" s="43"/>
-      <c r="M91" s="45"/>
-      <c r="N91" s="43"/>
-      <c r="O91" s="44"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="45"/>
+      <c r="A91" s="30"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="210"/>
+      <c r="M91" s="211"/>
+      <c r="N91" s="210"/>
+      <c r="O91" s="213"/>
+      <c r="P91" s="213"/>
+      <c r="Q91" s="211"/>
       <c r="R91" s="8"/>
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
@@ -7571,29 +7329,29 @@
       <c r="AQ91" s="5"/>
     </row>
     <row r="92" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="36">
+      <c r="A92" s="220">
         <v>1</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="51" t="s">
+      <c r="C92" s="215"/>
+      <c r="D92" s="215"/>
+      <c r="E92" s="215"/>
+      <c r="F92" s="215"/>
+      <c r="G92" s="215"/>
+      <c r="H92" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I92" s="52"/>
-      <c r="J92" s="52"/>
-      <c r="K92" s="53"/>
-      <c r="L92" s="37"/>
-      <c r="M92" s="37"/>
-      <c r="N92" s="26"/>
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
-      <c r="Q92" s="27"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="40"/>
+      <c r="M92" s="40"/>
+      <c r="N92" s="81"/>
+      <c r="O92" s="82"/>
+      <c r="P92" s="82"/>
+      <c r="Q92" s="83"/>
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
@@ -7622,23 +7380,23 @@
       <c r="AQ92" s="5"/>
     </row>
     <row r="93" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="36"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="54"/>
-      <c r="I93" s="55"/>
-      <c r="J93" s="55"/>
-      <c r="K93" s="56"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="47"/>
-      <c r="O93" s="48"/>
-      <c r="P93" s="48"/>
-      <c r="Q93" s="49"/>
+      <c r="A93" s="220"/>
+      <c r="B93" s="217"/>
+      <c r="C93" s="218"/>
+      <c r="D93" s="218"/>
+      <c r="E93" s="218"/>
+      <c r="F93" s="218"/>
+      <c r="G93" s="218"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="112"/>
+      <c r="O93" s="113"/>
+      <c r="P93" s="113"/>
+      <c r="Q93" s="114"/>
       <c r="R93" s="8"/>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
@@ -7667,29 +7425,29 @@
       <c r="AQ93" s="5"/>
     </row>
     <row r="94" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="36">
+      <c r="A94" s="220">
         <v>2</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="214" t="s">
         <v>57</v>
       </c>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="51" t="s">
+      <c r="C94" s="215"/>
+      <c r="D94" s="215"/>
+      <c r="E94" s="215"/>
+      <c r="F94" s="215"/>
+      <c r="G94" s="215"/>
+      <c r="H94" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I94" s="52"/>
-      <c r="J94" s="52"/>
-      <c r="K94" s="53"/>
-      <c r="L94" s="37"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="47"/>
-      <c r="O94" s="48"/>
-      <c r="P94" s="48"/>
-      <c r="Q94" s="49"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="40"/>
+      <c r="M94" s="40"/>
+      <c r="N94" s="112"/>
+      <c r="O94" s="113"/>
+      <c r="P94" s="113"/>
+      <c r="Q94" s="114"/>
       <c r="R94" s="8"/>
       <c r="S94" s="8"/>
       <c r="T94" s="8"/>
@@ -7718,23 +7476,23 @@
       <c r="AQ94" s="5"/>
     </row>
     <row r="95" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="36"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="55"/>
-      <c r="J95" s="55"/>
-      <c r="K95" s="56"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="47"/>
-      <c r="O95" s="48"/>
-      <c r="P95" s="48"/>
-      <c r="Q95" s="49"/>
+      <c r="A95" s="220"/>
+      <c r="B95" s="217"/>
+      <c r="C95" s="218"/>
+      <c r="D95" s="218"/>
+      <c r="E95" s="218"/>
+      <c r="F95" s="218"/>
+      <c r="G95" s="218"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="40"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="112"/>
+      <c r="O95" s="113"/>
+      <c r="P95" s="113"/>
+      <c r="Q95" s="114"/>
       <c r="R95" s="8"/>
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
@@ -7763,29 +7521,29 @@
       <c r="AQ95" s="5"/>
     </row>
     <row r="96" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="36">
+      <c r="A96" s="220">
         <v>3</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="51" t="s">
+      <c r="C96" s="215"/>
+      <c r="D96" s="215"/>
+      <c r="E96" s="215"/>
+      <c r="F96" s="215"/>
+      <c r="G96" s="215"/>
+      <c r="H96" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I96" s="52"/>
-      <c r="J96" s="52"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="47"/>
-      <c r="O96" s="48"/>
-      <c r="P96" s="48"/>
-      <c r="Q96" s="49"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="112"/>
+      <c r="O96" s="113"/>
+      <c r="P96" s="113"/>
+      <c r="Q96" s="114"/>
       <c r="R96" s="8"/>
       <c r="S96" s="8"/>
       <c r="T96" s="8"/>
@@ -7814,23 +7572,23 @@
       <c r="AQ96" s="5"/>
     </row>
     <row r="97" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="36"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="55"/>
-      <c r="J97" s="55"/>
-      <c r="K97" s="56"/>
-      <c r="L97" s="37"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="47"/>
-      <c r="O97" s="48"/>
-      <c r="P97" s="48"/>
-      <c r="Q97" s="49"/>
+      <c r="A97" s="220"/>
+      <c r="B97" s="217"/>
+      <c r="C97" s="218"/>
+      <c r="D97" s="218"/>
+      <c r="E97" s="218"/>
+      <c r="F97" s="218"/>
+      <c r="G97" s="218"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="40"/>
+      <c r="M97" s="40"/>
+      <c r="N97" s="112"/>
+      <c r="O97" s="113"/>
+      <c r="P97" s="113"/>
+      <c r="Q97" s="114"/>
       <c r="R97" s="8"/>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
@@ -7859,29 +7617,29 @@
       <c r="AQ97" s="5"/>
     </row>
     <row r="98" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="36">
+      <c r="A98" s="220">
         <v>4</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="51" t="s">
+      <c r="C98" s="215"/>
+      <c r="D98" s="215"/>
+      <c r="E98" s="215"/>
+      <c r="F98" s="215"/>
+      <c r="G98" s="215"/>
+      <c r="H98" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I98" s="52"/>
-      <c r="J98" s="52"/>
-      <c r="K98" s="53"/>
-      <c r="L98" s="37"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="47"/>
-      <c r="O98" s="48"/>
-      <c r="P98" s="48"/>
-      <c r="Q98" s="49"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="40"/>
+      <c r="M98" s="40"/>
+      <c r="N98" s="112"/>
+      <c r="O98" s="113"/>
+      <c r="P98" s="113"/>
+      <c r="Q98" s="114"/>
       <c r="R98" s="8"/>
       <c r="S98" s="8"/>
       <c r="T98" s="8"/>
@@ -7910,23 +7668,23 @@
       <c r="AQ98" s="5"/>
     </row>
     <row r="99" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="36"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="55"/>
-      <c r="J99" s="55"/>
-      <c r="K99" s="56"/>
-      <c r="L99" s="37"/>
-      <c r="M99" s="37"/>
-      <c r="N99" s="47"/>
-      <c r="O99" s="48"/>
-      <c r="P99" s="48"/>
-      <c r="Q99" s="49"/>
+      <c r="A99" s="220"/>
+      <c r="B99" s="217"/>
+      <c r="C99" s="218"/>
+      <c r="D99" s="218"/>
+      <c r="E99" s="218"/>
+      <c r="F99" s="218"/>
+      <c r="G99" s="218"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="40"/>
+      <c r="M99" s="40"/>
+      <c r="N99" s="112"/>
+      <c r="O99" s="113"/>
+      <c r="P99" s="113"/>
+      <c r="Q99" s="114"/>
       <c r="R99" s="8"/>
       <c r="S99" s="8"/>
       <c r="T99" s="8"/>
@@ -7955,29 +7713,29 @@
       <c r="AQ99" s="5"/>
     </row>
     <row r="100" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="36">
+      <c r="A100" s="220">
         <v>5</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="214" t="s">
         <v>58</v>
       </c>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="51" t="s">
+      <c r="C100" s="215"/>
+      <c r="D100" s="215"/>
+      <c r="E100" s="215"/>
+      <c r="F100" s="215"/>
+      <c r="G100" s="215"/>
+      <c r="H100" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I100" s="52"/>
-      <c r="J100" s="52"/>
-      <c r="K100" s="53"/>
-      <c r="L100" s="37"/>
-      <c r="M100" s="37"/>
-      <c r="N100" s="47"/>
-      <c r="O100" s="48"/>
-      <c r="P100" s="48"/>
-      <c r="Q100" s="49"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="40"/>
+      <c r="M100" s="40"/>
+      <c r="N100" s="112"/>
+      <c r="O100" s="113"/>
+      <c r="P100" s="113"/>
+      <c r="Q100" s="114"/>
       <c r="R100" s="8"/>
       <c r="S100" s="8"/>
       <c r="T100" s="8"/>
@@ -8006,23 +7764,23 @@
       <c r="AQ100" s="5"/>
     </row>
     <row r="101" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="36"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="55"/>
-      <c r="J101" s="55"/>
-      <c r="K101" s="56"/>
-      <c r="L101" s="37"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="47"/>
-      <c r="O101" s="48"/>
-      <c r="P101" s="48"/>
-      <c r="Q101" s="49"/>
+      <c r="A101" s="220"/>
+      <c r="B101" s="217"/>
+      <c r="C101" s="218"/>
+      <c r="D101" s="218"/>
+      <c r="E101" s="218"/>
+      <c r="F101" s="218"/>
+      <c r="G101" s="218"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="40"/>
+      <c r="M101" s="40"/>
+      <c r="N101" s="112"/>
+      <c r="O101" s="113"/>
+      <c r="P101" s="113"/>
+      <c r="Q101" s="114"/>
       <c r="R101" s="8"/>
       <c r="S101" s="8"/>
       <c r="T101" s="8"/>
@@ -8051,29 +7809,29 @@
       <c r="AQ101" s="5"/>
     </row>
     <row r="102" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="36">
+      <c r="A102" s="220">
         <v>6</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="51" t="s">
+      <c r="C102" s="215"/>
+      <c r="D102" s="215"/>
+      <c r="E102" s="215"/>
+      <c r="F102" s="215"/>
+      <c r="G102" s="215"/>
+      <c r="H102" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I102" s="52"/>
-      <c r="J102" s="52"/>
-      <c r="K102" s="53"/>
-      <c r="L102" s="26"/>
-      <c r="M102" s="27"/>
-      <c r="N102" s="47"/>
-      <c r="O102" s="48"/>
-      <c r="P102" s="48"/>
-      <c r="Q102" s="49"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="81"/>
+      <c r="M102" s="83"/>
+      <c r="N102" s="112"/>
+      <c r="O102" s="113"/>
+      <c r="P102" s="113"/>
+      <c r="Q102" s="114"/>
       <c r="R102" s="8"/>
       <c r="S102" s="8"/>
       <c r="T102" s="8"/>
@@ -8102,23 +7860,23 @@
       <c r="AQ102" s="5"/>
     </row>
     <row r="103" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="36"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="55"/>
-      <c r="J103" s="55"/>
-      <c r="K103" s="56"/>
-      <c r="L103" s="28"/>
-      <c r="M103" s="29"/>
-      <c r="N103" s="47"/>
-      <c r="O103" s="48"/>
-      <c r="P103" s="48"/>
-      <c r="Q103" s="49"/>
+      <c r="A103" s="220"/>
+      <c r="B103" s="217"/>
+      <c r="C103" s="218"/>
+      <c r="D103" s="218"/>
+      <c r="E103" s="218"/>
+      <c r="F103" s="218"/>
+      <c r="G103" s="218"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="84"/>
+      <c r="M103" s="86"/>
+      <c r="N103" s="112"/>
+      <c r="O103" s="113"/>
+      <c r="P103" s="113"/>
+      <c r="Q103" s="114"/>
       <c r="R103" s="8"/>
       <c r="S103" s="8"/>
       <c r="T103" s="8"/>
@@ -8147,29 +7905,29 @@
       <c r="AQ103" s="5"/>
     </row>
     <row r="104" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="36">
+      <c r="A104" s="220">
         <v>7</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="51" t="s">
+      <c r="C104" s="215"/>
+      <c r="D104" s="215"/>
+      <c r="E104" s="215"/>
+      <c r="F104" s="215"/>
+      <c r="G104" s="215"/>
+      <c r="H104" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I104" s="52"/>
-      <c r="J104" s="52"/>
-      <c r="K104" s="53"/>
-      <c r="L104" s="26"/>
-      <c r="M104" s="27"/>
-      <c r="N104" s="47"/>
-      <c r="O104" s="48"/>
-      <c r="P104" s="48"/>
-      <c r="Q104" s="49"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="81"/>
+      <c r="M104" s="83"/>
+      <c r="N104" s="112"/>
+      <c r="O104" s="113"/>
+      <c r="P104" s="113"/>
+      <c r="Q104" s="114"/>
       <c r="R104" s="8"/>
       <c r="S104" s="8"/>
       <c r="T104" s="8"/>
@@ -8198,23 +7956,23 @@
       <c r="AQ104" s="5"/>
     </row>
     <row r="105" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="36"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="54"/>
-      <c r="I105" s="55"/>
-      <c r="J105" s="55"/>
-      <c r="K105" s="56"/>
-      <c r="L105" s="28"/>
-      <c r="M105" s="29"/>
-      <c r="N105" s="28"/>
-      <c r="O105" s="50"/>
-      <c r="P105" s="50"/>
-      <c r="Q105" s="29"/>
+      <c r="A105" s="220"/>
+      <c r="B105" s="217"/>
+      <c r="C105" s="218"/>
+      <c r="D105" s="218"/>
+      <c r="E105" s="218"/>
+      <c r="F105" s="218"/>
+      <c r="G105" s="218"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="84"/>
+      <c r="M105" s="86"/>
+      <c r="N105" s="84"/>
+      <c r="O105" s="85"/>
+      <c r="P105" s="85"/>
+      <c r="Q105" s="86"/>
       <c r="R105" s="9"/>
       <c r="S105" s="9"/>
       <c r="T105" s="9"/>
@@ -8243,33 +8001,33 @@
       <c r="AQ105" s="7"/>
     </row>
     <row r="106" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="57" t="s">
+      <c r="A106" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="B106" s="59" t="s">
+      <c r="B106" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C106" s="60"/>
-      <c r="D106" s="60"/>
-      <c r="E106" s="60"/>
-      <c r="F106" s="60"/>
-      <c r="G106" s="61"/>
-      <c r="H106" s="65" t="s">
+      <c r="C106" s="228"/>
+      <c r="D106" s="228"/>
+      <c r="E106" s="228"/>
+      <c r="F106" s="228"/>
+      <c r="G106" s="229"/>
+      <c r="H106" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="I106" s="66"/>
-      <c r="J106" s="66"/>
-      <c r="K106" s="67"/>
-      <c r="L106" s="40" t="s">
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="33"/>
+      <c r="L106" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="M106" s="42"/>
-      <c r="N106" s="40" t="s">
+      <c r="M106" s="209"/>
+      <c r="N106" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="O106" s="41"/>
-      <c r="P106" s="41"/>
-      <c r="Q106" s="42"/>
+      <c r="O106" s="212"/>
+      <c r="P106" s="212"/>
+      <c r="Q106" s="209"/>
       <c r="R106" s="8"/>
       <c r="S106" s="8"/>
       <c r="T106" s="8"/>
@@ -8298,23 +8056,23 @@
       <c r="AQ106" s="5"/>
     </row>
     <row r="107" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="58"/>
-      <c r="B107" s="62"/>
-      <c r="C107" s="63"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="63"/>
-      <c r="G107" s="64"/>
-      <c r="H107" s="68"/>
-      <c r="I107" s="69"/>
-      <c r="J107" s="69"/>
-      <c r="K107" s="70"/>
-      <c r="L107" s="43"/>
-      <c r="M107" s="45"/>
-      <c r="N107" s="43"/>
-      <c r="O107" s="44"/>
-      <c r="P107" s="44"/>
-      <c r="Q107" s="45"/>
+      <c r="A107" s="93"/>
+      <c r="B107" s="230"/>
+      <c r="C107" s="231"/>
+      <c r="D107" s="231"/>
+      <c r="E107" s="231"/>
+      <c r="F107" s="231"/>
+      <c r="G107" s="232"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="35"/>
+      <c r="K107" s="36"/>
+      <c r="L107" s="210"/>
+      <c r="M107" s="211"/>
+      <c r="N107" s="210"/>
+      <c r="O107" s="213"/>
+      <c r="P107" s="213"/>
+      <c r="Q107" s="211"/>
       <c r="R107" s="8"/>
       <c r="S107" s="8"/>
       <c r="T107" s="8"/>
@@ -8343,29 +8101,29 @@
       <c r="AQ107" s="5"/>
     </row>
     <row r="108" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="36">
+      <c r="A108" s="220">
         <v>1</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="20" t="s">
+      <c r="C108" s="215"/>
+      <c r="D108" s="215"/>
+      <c r="E108" s="215"/>
+      <c r="F108" s="215"/>
+      <c r="G108" s="215"/>
+      <c r="H108" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="I108" s="21"/>
-      <c r="J108" s="21"/>
-      <c r="K108" s="22"/>
-      <c r="L108" s="37"/>
-      <c r="M108" s="37"/>
-      <c r="N108" s="26"/>
-      <c r="O108" s="46"/>
-      <c r="P108" s="46"/>
-      <c r="Q108" s="27"/>
+      <c r="I108" s="222"/>
+      <c r="J108" s="222"/>
+      <c r="K108" s="223"/>
+      <c r="L108" s="40"/>
+      <c r="M108" s="40"/>
+      <c r="N108" s="81"/>
+      <c r="O108" s="82"/>
+      <c r="P108" s="82"/>
+      <c r="Q108" s="83"/>
       <c r="R108" s="8"/>
       <c r="S108" s="8"/>
       <c r="T108" s="8"/>
@@ -8394,23 +8152,23 @@
       <c r="AQ108" s="5"/>
     </row>
     <row r="109" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="36"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="23"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="25"/>
-      <c r="L109" s="37"/>
-      <c r="M109" s="37"/>
-      <c r="N109" s="47"/>
-      <c r="O109" s="48"/>
-      <c r="P109" s="48"/>
-      <c r="Q109" s="49"/>
+      <c r="A109" s="220"/>
+      <c r="B109" s="217"/>
+      <c r="C109" s="218"/>
+      <c r="D109" s="218"/>
+      <c r="E109" s="218"/>
+      <c r="F109" s="218"/>
+      <c r="G109" s="218"/>
+      <c r="H109" s="224"/>
+      <c r="I109" s="225"/>
+      <c r="J109" s="225"/>
+      <c r="K109" s="226"/>
+      <c r="L109" s="40"/>
+      <c r="M109" s="40"/>
+      <c r="N109" s="112"/>
+      <c r="O109" s="113"/>
+      <c r="P109" s="113"/>
+      <c r="Q109" s="114"/>
       <c r="R109" s="8"/>
       <c r="S109" s="8"/>
       <c r="T109" s="8"/>
@@ -8439,29 +8197,29 @@
       <c r="AQ109" s="5"/>
     </row>
     <row r="110" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="36">
+      <c r="A110" s="220">
         <v>2</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="214" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="20" t="s">
+      <c r="C110" s="215"/>
+      <c r="D110" s="215"/>
+      <c r="E110" s="215"/>
+      <c r="F110" s="215"/>
+      <c r="G110" s="215"/>
+      <c r="H110" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="I110" s="21"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="22"/>
-      <c r="L110" s="37"/>
-      <c r="M110" s="37"/>
-      <c r="N110" s="47"/>
-      <c r="O110" s="48"/>
-      <c r="P110" s="48"/>
-      <c r="Q110" s="49"/>
+      <c r="I110" s="222"/>
+      <c r="J110" s="222"/>
+      <c r="K110" s="223"/>
+      <c r="L110" s="40"/>
+      <c r="M110" s="40"/>
+      <c r="N110" s="112"/>
+      <c r="O110" s="113"/>
+      <c r="P110" s="113"/>
+      <c r="Q110" s="114"/>
       <c r="R110" s="8"/>
       <c r="S110" s="8"/>
       <c r="T110" s="8"/>
@@ -8490,23 +8248,23 @@
       <c r="AQ110" s="5"/>
     </row>
     <row r="111" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="36"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="25"/>
-      <c r="L111" s="37"/>
-      <c r="M111" s="37"/>
-      <c r="N111" s="47"/>
-      <c r="O111" s="48"/>
-      <c r="P111" s="48"/>
-      <c r="Q111" s="49"/>
+      <c r="A111" s="220"/>
+      <c r="B111" s="217"/>
+      <c r="C111" s="218"/>
+      <c r="D111" s="218"/>
+      <c r="E111" s="218"/>
+      <c r="F111" s="218"/>
+      <c r="G111" s="218"/>
+      <c r="H111" s="224"/>
+      <c r="I111" s="225"/>
+      <c r="J111" s="225"/>
+      <c r="K111" s="226"/>
+      <c r="L111" s="40"/>
+      <c r="M111" s="40"/>
+      <c r="N111" s="112"/>
+      <c r="O111" s="113"/>
+      <c r="P111" s="113"/>
+      <c r="Q111" s="114"/>
       <c r="R111" s="8"/>
       <c r="S111" s="8"/>
       <c r="T111" s="8"/>
@@ -8535,29 +8293,29 @@
       <c r="AQ111" s="5"/>
     </row>
     <row r="112" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="36">
+      <c r="A112" s="220">
         <v>3</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="20" t="s">
+      <c r="C112" s="215"/>
+      <c r="D112" s="215"/>
+      <c r="E112" s="215"/>
+      <c r="F112" s="215"/>
+      <c r="G112" s="215"/>
+      <c r="H112" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="I112" s="21"/>
-      <c r="J112" s="21"/>
-      <c r="K112" s="22"/>
-      <c r="L112" s="37"/>
-      <c r="M112" s="37"/>
-      <c r="N112" s="47"/>
-      <c r="O112" s="48"/>
-      <c r="P112" s="48"/>
-      <c r="Q112" s="49"/>
+      <c r="I112" s="222"/>
+      <c r="J112" s="222"/>
+      <c r="K112" s="223"/>
+      <c r="L112" s="40"/>
+      <c r="M112" s="40"/>
+      <c r="N112" s="112"/>
+      <c r="O112" s="113"/>
+      <c r="P112" s="113"/>
+      <c r="Q112" s="114"/>
       <c r="R112" s="8"/>
       <c r="S112" s="8"/>
       <c r="T112" s="8"/>
@@ -8586,23 +8344,23 @@
       <c r="AQ112" s="5"/>
     </row>
     <row r="113" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="36"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24"/>
-      <c r="K113" s="25"/>
-      <c r="L113" s="37"/>
-      <c r="M113" s="37"/>
-      <c r="N113" s="47"/>
-      <c r="O113" s="48"/>
-      <c r="P113" s="48"/>
-      <c r="Q113" s="49"/>
+      <c r="A113" s="220"/>
+      <c r="B113" s="217"/>
+      <c r="C113" s="218"/>
+      <c r="D113" s="218"/>
+      <c r="E113" s="218"/>
+      <c r="F113" s="218"/>
+      <c r="G113" s="218"/>
+      <c r="H113" s="224"/>
+      <c r="I113" s="225"/>
+      <c r="J113" s="225"/>
+      <c r="K113" s="226"/>
+      <c r="L113" s="40"/>
+      <c r="M113" s="40"/>
+      <c r="N113" s="112"/>
+      <c r="O113" s="113"/>
+      <c r="P113" s="113"/>
+      <c r="Q113" s="114"/>
       <c r="R113" s="8"/>
       <c r="S113" s="8"/>
       <c r="T113" s="8"/>
@@ -8631,29 +8389,29 @@
       <c r="AQ113" s="5"/>
     </row>
     <row r="114" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="36">
+      <c r="A114" s="220">
         <v>4</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="214" t="s">
         <v>26</v>
       </c>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="20" t="s">
+      <c r="C114" s="215"/>
+      <c r="D114" s="215"/>
+      <c r="E114" s="215"/>
+      <c r="F114" s="215"/>
+      <c r="G114" s="215"/>
+      <c r="H114" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="I114" s="21"/>
-      <c r="J114" s="21"/>
-      <c r="K114" s="22"/>
-      <c r="L114" s="37"/>
-      <c r="M114" s="37"/>
-      <c r="N114" s="47"/>
-      <c r="O114" s="48"/>
-      <c r="P114" s="48"/>
-      <c r="Q114" s="49"/>
+      <c r="I114" s="222"/>
+      <c r="J114" s="222"/>
+      <c r="K114" s="223"/>
+      <c r="L114" s="40"/>
+      <c r="M114" s="40"/>
+      <c r="N114" s="112"/>
+      <c r="O114" s="113"/>
+      <c r="P114" s="113"/>
+      <c r="Q114" s="114"/>
       <c r="R114" s="8"/>
       <c r="S114" s="8"/>
       <c r="T114" s="8"/>
@@ -8682,23 +8440,23 @@
       <c r="AQ114" s="5"/>
     </row>
     <row r="115" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="36"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="23"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
-      <c r="K115" s="25"/>
-      <c r="L115" s="37"/>
-      <c r="M115" s="37"/>
-      <c r="N115" s="47"/>
-      <c r="O115" s="48"/>
-      <c r="P115" s="48"/>
-      <c r="Q115" s="49"/>
+      <c r="A115" s="220"/>
+      <c r="B115" s="217"/>
+      <c r="C115" s="218"/>
+      <c r="D115" s="218"/>
+      <c r="E115" s="218"/>
+      <c r="F115" s="218"/>
+      <c r="G115" s="218"/>
+      <c r="H115" s="224"/>
+      <c r="I115" s="225"/>
+      <c r="J115" s="225"/>
+      <c r="K115" s="226"/>
+      <c r="L115" s="40"/>
+      <c r="M115" s="40"/>
+      <c r="N115" s="112"/>
+      <c r="O115" s="113"/>
+      <c r="P115" s="113"/>
+      <c r="Q115" s="114"/>
       <c r="R115" s="8"/>
       <c r="S115" s="8"/>
       <c r="T115" s="8"/>
@@ -8727,29 +8485,29 @@
       <c r="AQ115" s="5"/>
     </row>
     <row r="116" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="36">
+      <c r="A116" s="220">
         <v>5</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="214" t="s">
         <v>27</v>
       </c>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="20" t="s">
+      <c r="C116" s="215"/>
+      <c r="D116" s="215"/>
+      <c r="E116" s="215"/>
+      <c r="F116" s="215"/>
+      <c r="G116" s="215"/>
+      <c r="H116" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="I116" s="21"/>
-      <c r="J116" s="21"/>
-      <c r="K116" s="22"/>
-      <c r="L116" s="37"/>
-      <c r="M116" s="37"/>
-      <c r="N116" s="47"/>
-      <c r="O116" s="48"/>
-      <c r="P116" s="48"/>
-      <c r="Q116" s="49"/>
+      <c r="I116" s="222"/>
+      <c r="J116" s="222"/>
+      <c r="K116" s="223"/>
+      <c r="L116" s="40"/>
+      <c r="M116" s="40"/>
+      <c r="N116" s="112"/>
+      <c r="O116" s="113"/>
+      <c r="P116" s="113"/>
+      <c r="Q116" s="114"/>
       <c r="R116" s="8"/>
       <c r="S116" s="8"/>
       <c r="T116" s="8"/>
@@ -8778,23 +8536,23 @@
       <c r="AQ116" s="5"/>
     </row>
     <row r="117" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="36"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="23"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="24"/>
-      <c r="K117" s="25"/>
-      <c r="L117" s="37"/>
-      <c r="M117" s="37"/>
-      <c r="N117" s="47"/>
-      <c r="O117" s="48"/>
-      <c r="P117" s="48"/>
-      <c r="Q117" s="49"/>
+      <c r="A117" s="220"/>
+      <c r="B117" s="217"/>
+      <c r="C117" s="218"/>
+      <c r="D117" s="218"/>
+      <c r="E117" s="218"/>
+      <c r="F117" s="218"/>
+      <c r="G117" s="218"/>
+      <c r="H117" s="224"/>
+      <c r="I117" s="225"/>
+      <c r="J117" s="225"/>
+      <c r="K117" s="226"/>
+      <c r="L117" s="40"/>
+      <c r="M117" s="40"/>
+      <c r="N117" s="112"/>
+      <c r="O117" s="113"/>
+      <c r="P117" s="113"/>
+      <c r="Q117" s="114"/>
       <c r="R117" s="8"/>
       <c r="S117" s="8"/>
       <c r="T117" s="8"/>
@@ -8823,29 +8581,29 @@
       <c r="AQ117" s="5"/>
     </row>
     <row r="118" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="36">
+      <c r="A118" s="220">
         <v>6</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="20" t="s">
+      <c r="C118" s="215"/>
+      <c r="D118" s="215"/>
+      <c r="E118" s="215"/>
+      <c r="F118" s="215"/>
+      <c r="G118" s="215"/>
+      <c r="H118" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="I118" s="21"/>
-      <c r="J118" s="21"/>
-      <c r="K118" s="22"/>
-      <c r="L118" s="37"/>
-      <c r="M118" s="37"/>
-      <c r="N118" s="47"/>
-      <c r="O118" s="48"/>
-      <c r="P118" s="48"/>
-      <c r="Q118" s="49"/>
+      <c r="I118" s="222"/>
+      <c r="J118" s="222"/>
+      <c r="K118" s="223"/>
+      <c r="L118" s="40"/>
+      <c r="M118" s="40"/>
+      <c r="N118" s="112"/>
+      <c r="O118" s="113"/>
+      <c r="P118" s="113"/>
+      <c r="Q118" s="114"/>
       <c r="R118" s="8"/>
       <c r="S118" s="8"/>
       <c r="T118" s="8"/>
@@ -8874,23 +8632,23 @@
       <c r="AQ118" s="5"/>
     </row>
     <row r="119" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="36"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="24"/>
-      <c r="K119" s="25"/>
-      <c r="L119" s="37"/>
-      <c r="M119" s="37"/>
-      <c r="N119" s="47"/>
-      <c r="O119" s="48"/>
-      <c r="P119" s="48"/>
-      <c r="Q119" s="49"/>
+      <c r="A119" s="220"/>
+      <c r="B119" s="217"/>
+      <c r="C119" s="218"/>
+      <c r="D119" s="218"/>
+      <c r="E119" s="218"/>
+      <c r="F119" s="218"/>
+      <c r="G119" s="218"/>
+      <c r="H119" s="224"/>
+      <c r="I119" s="225"/>
+      <c r="J119" s="225"/>
+      <c r="K119" s="226"/>
+      <c r="L119" s="40"/>
+      <c r="M119" s="40"/>
+      <c r="N119" s="112"/>
+      <c r="O119" s="113"/>
+      <c r="P119" s="113"/>
+      <c r="Q119" s="114"/>
       <c r="R119" s="8"/>
       <c r="S119" s="8"/>
       <c r="T119" s="8"/>
@@ -8919,29 +8677,29 @@
       <c r="AQ119" s="5"/>
     </row>
     <row r="120" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="36">
+      <c r="A120" s="220">
         <v>7</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="214" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="20" t="s">
+      <c r="C120" s="215"/>
+      <c r="D120" s="215"/>
+      <c r="E120" s="215"/>
+      <c r="F120" s="215"/>
+      <c r="G120" s="215"/>
+      <c r="H120" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="I120" s="21"/>
-      <c r="J120" s="21"/>
-      <c r="K120" s="22"/>
-      <c r="L120" s="37"/>
-      <c r="M120" s="37"/>
-      <c r="N120" s="47"/>
-      <c r="O120" s="48"/>
-      <c r="P120" s="48"/>
-      <c r="Q120" s="49"/>
+      <c r="I120" s="222"/>
+      <c r="J120" s="222"/>
+      <c r="K120" s="223"/>
+      <c r="L120" s="40"/>
+      <c r="M120" s="40"/>
+      <c r="N120" s="112"/>
+      <c r="O120" s="113"/>
+      <c r="P120" s="113"/>
+      <c r="Q120" s="114"/>
       <c r="R120" s="8"/>
       <c r="S120" s="8"/>
       <c r="T120" s="8"/>
@@ -8970,23 +8728,23 @@
       <c r="AQ120" s="5"/>
     </row>
     <row r="121" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="36"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="23"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="25"/>
-      <c r="L121" s="37"/>
-      <c r="M121" s="37"/>
-      <c r="N121" s="47"/>
-      <c r="O121" s="48"/>
-      <c r="P121" s="48"/>
-      <c r="Q121" s="49"/>
+      <c r="A121" s="220"/>
+      <c r="B121" s="217"/>
+      <c r="C121" s="218"/>
+      <c r="D121" s="218"/>
+      <c r="E121" s="218"/>
+      <c r="F121" s="218"/>
+      <c r="G121" s="218"/>
+      <c r="H121" s="224"/>
+      <c r="I121" s="225"/>
+      <c r="J121" s="225"/>
+      <c r="K121" s="226"/>
+      <c r="L121" s="40"/>
+      <c r="M121" s="40"/>
+      <c r="N121" s="112"/>
+      <c r="O121" s="113"/>
+      <c r="P121" s="113"/>
+      <c r="Q121" s="114"/>
       <c r="R121" s="8"/>
       <c r="S121" s="8"/>
       <c r="T121" s="8"/>
@@ -9015,29 +8773,29 @@
       <c r="AQ121" s="5"/>
     </row>
     <row r="122" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="36">
+      <c r="A122" s="220">
         <v>8</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="214" t="s">
         <v>30</v>
       </c>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="20" t="s">
+      <c r="C122" s="215"/>
+      <c r="D122" s="215"/>
+      <c r="E122" s="215"/>
+      <c r="F122" s="215"/>
+      <c r="G122" s="215"/>
+      <c r="H122" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="I122" s="21"/>
-      <c r="J122" s="21"/>
-      <c r="K122" s="22"/>
-      <c r="L122" s="37"/>
-      <c r="M122" s="37"/>
-      <c r="N122" s="47"/>
-      <c r="O122" s="48"/>
-      <c r="P122" s="48"/>
-      <c r="Q122" s="49"/>
+      <c r="I122" s="222"/>
+      <c r="J122" s="222"/>
+      <c r="K122" s="223"/>
+      <c r="L122" s="40"/>
+      <c r="M122" s="40"/>
+      <c r="N122" s="112"/>
+      <c r="O122" s="113"/>
+      <c r="P122" s="113"/>
+      <c r="Q122" s="114"/>
       <c r="R122" s="8"/>
       <c r="S122" s="8"/>
       <c r="T122" s="8"/>
@@ -9066,23 +8824,23 @@
       <c r="AQ122" s="5"/>
     </row>
     <row r="123" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="36"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="23"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="24"/>
-      <c r="K123" s="25"/>
-      <c r="L123" s="37"/>
-      <c r="M123" s="37"/>
-      <c r="N123" s="47"/>
-      <c r="O123" s="48"/>
-      <c r="P123" s="48"/>
-      <c r="Q123" s="49"/>
+      <c r="A123" s="220"/>
+      <c r="B123" s="217"/>
+      <c r="C123" s="218"/>
+      <c r="D123" s="218"/>
+      <c r="E123" s="218"/>
+      <c r="F123" s="218"/>
+      <c r="G123" s="218"/>
+      <c r="H123" s="224"/>
+      <c r="I123" s="225"/>
+      <c r="J123" s="225"/>
+      <c r="K123" s="226"/>
+      <c r="L123" s="40"/>
+      <c r="M123" s="40"/>
+      <c r="N123" s="112"/>
+      <c r="O123" s="113"/>
+      <c r="P123" s="113"/>
+      <c r="Q123" s="114"/>
       <c r="R123" s="8"/>
       <c r="S123" s="8"/>
       <c r="T123" s="8"/>
@@ -9111,29 +8869,29 @@
       <c r="AQ123" s="5"/>
     </row>
     <row r="124" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="36">
+      <c r="A124" s="220">
         <v>9</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="20" t="s">
+      <c r="C124" s="215"/>
+      <c r="D124" s="215"/>
+      <c r="E124" s="215"/>
+      <c r="F124" s="215"/>
+      <c r="G124" s="215"/>
+      <c r="H124" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="I124" s="21"/>
-      <c r="J124" s="21"/>
-      <c r="K124" s="22"/>
-      <c r="L124" s="37"/>
-      <c r="M124" s="37"/>
-      <c r="N124" s="47"/>
-      <c r="O124" s="48"/>
-      <c r="P124" s="48"/>
-      <c r="Q124" s="49"/>
+      <c r="I124" s="222"/>
+      <c r="J124" s="222"/>
+      <c r="K124" s="223"/>
+      <c r="L124" s="40"/>
+      <c r="M124" s="40"/>
+      <c r="N124" s="112"/>
+      <c r="O124" s="113"/>
+      <c r="P124" s="113"/>
+      <c r="Q124" s="114"/>
       <c r="R124" s="8"/>
       <c r="S124" s="8"/>
       <c r="T124" s="8"/>
@@ -9162,23 +8920,23 @@
       <c r="AQ124" s="5"/>
     </row>
     <row r="125" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="36"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="24"/>
-      <c r="K125" s="25"/>
-      <c r="L125" s="37"/>
-      <c r="M125" s="37"/>
-      <c r="N125" s="47"/>
-      <c r="O125" s="48"/>
-      <c r="P125" s="48"/>
-      <c r="Q125" s="49"/>
+      <c r="A125" s="220"/>
+      <c r="B125" s="217"/>
+      <c r="C125" s="218"/>
+      <c r="D125" s="218"/>
+      <c r="E125" s="218"/>
+      <c r="F125" s="218"/>
+      <c r="G125" s="218"/>
+      <c r="H125" s="224"/>
+      <c r="I125" s="225"/>
+      <c r="J125" s="225"/>
+      <c r="K125" s="226"/>
+      <c r="L125" s="40"/>
+      <c r="M125" s="40"/>
+      <c r="N125" s="112"/>
+      <c r="O125" s="113"/>
+      <c r="P125" s="113"/>
+      <c r="Q125" s="114"/>
       <c r="R125" s="8"/>
       <c r="S125" s="8"/>
       <c r="T125" s="8"/>
@@ -9207,29 +8965,29 @@
       <c r="AQ125" s="5"/>
     </row>
     <row r="126" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="38">
+      <c r="A126" s="239">
         <v>10</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="20" t="s">
+      <c r="C126" s="215"/>
+      <c r="D126" s="215"/>
+      <c r="E126" s="215"/>
+      <c r="F126" s="215"/>
+      <c r="G126" s="215"/>
+      <c r="H126" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="I126" s="21"/>
-      <c r="J126" s="21"/>
-      <c r="K126" s="22"/>
-      <c r="L126" s="37"/>
-      <c r="M126" s="37"/>
-      <c r="N126" s="47"/>
-      <c r="O126" s="48"/>
-      <c r="P126" s="48"/>
-      <c r="Q126" s="49"/>
+      <c r="I126" s="222"/>
+      <c r="J126" s="222"/>
+      <c r="K126" s="223"/>
+      <c r="L126" s="40"/>
+      <c r="M126" s="40"/>
+      <c r="N126" s="112"/>
+      <c r="O126" s="113"/>
+      <c r="P126" s="113"/>
+      <c r="Q126" s="114"/>
       <c r="R126" s="8"/>
       <c r="S126" s="8"/>
       <c r="T126" s="8"/>
@@ -9258,23 +9016,23 @@
       <c r="AQ126" s="5"/>
     </row>
     <row r="127" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="39"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="23"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="24"/>
-      <c r="K127" s="25"/>
-      <c r="L127" s="37"/>
-      <c r="M127" s="37"/>
-      <c r="N127" s="47"/>
-      <c r="O127" s="48"/>
-      <c r="P127" s="48"/>
-      <c r="Q127" s="49"/>
+      <c r="A127" s="240"/>
+      <c r="B127" s="217"/>
+      <c r="C127" s="218"/>
+      <c r="D127" s="218"/>
+      <c r="E127" s="218"/>
+      <c r="F127" s="218"/>
+      <c r="G127" s="218"/>
+      <c r="H127" s="224"/>
+      <c r="I127" s="225"/>
+      <c r="J127" s="225"/>
+      <c r="K127" s="226"/>
+      <c r="L127" s="40"/>
+      <c r="M127" s="40"/>
+      <c r="N127" s="112"/>
+      <c r="O127" s="113"/>
+      <c r="P127" s="113"/>
+      <c r="Q127" s="114"/>
       <c r="R127" s="8"/>
       <c r="S127" s="8"/>
       <c r="T127" s="8"/>
@@ -9303,29 +9061,29 @@
       <c r="AQ127" s="5"/>
     </row>
     <row r="128" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="38">
+      <c r="A128" s="239">
         <v>11</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="20" t="s">
+      <c r="C128" s="215"/>
+      <c r="D128" s="215"/>
+      <c r="E128" s="215"/>
+      <c r="F128" s="215"/>
+      <c r="G128" s="215"/>
+      <c r="H128" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="I128" s="21"/>
-      <c r="J128" s="21"/>
-      <c r="K128" s="22"/>
-      <c r="L128" s="37"/>
-      <c r="M128" s="37"/>
-      <c r="N128" s="47"/>
-      <c r="O128" s="48"/>
-      <c r="P128" s="48"/>
-      <c r="Q128" s="49"/>
+      <c r="I128" s="222"/>
+      <c r="J128" s="222"/>
+      <c r="K128" s="223"/>
+      <c r="L128" s="40"/>
+      <c r="M128" s="40"/>
+      <c r="N128" s="112"/>
+      <c r="O128" s="113"/>
+      <c r="P128" s="113"/>
+      <c r="Q128" s="114"/>
       <c r="R128" s="8"/>
       <c r="S128" s="8"/>
       <c r="T128" s="8"/>
@@ -9354,23 +9112,23 @@
       <c r="AQ128" s="5"/>
     </row>
     <row r="129" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="39"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="23"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="24"/>
-      <c r="K129" s="25"/>
-      <c r="L129" s="37"/>
-      <c r="M129" s="37"/>
-      <c r="N129" s="47"/>
-      <c r="O129" s="48"/>
-      <c r="P129" s="48"/>
-      <c r="Q129" s="49"/>
+      <c r="A129" s="240"/>
+      <c r="B129" s="217"/>
+      <c r="C129" s="218"/>
+      <c r="D129" s="218"/>
+      <c r="E129" s="218"/>
+      <c r="F129" s="218"/>
+      <c r="G129" s="218"/>
+      <c r="H129" s="224"/>
+      <c r="I129" s="225"/>
+      <c r="J129" s="225"/>
+      <c r="K129" s="226"/>
+      <c r="L129" s="40"/>
+      <c r="M129" s="40"/>
+      <c r="N129" s="112"/>
+      <c r="O129" s="113"/>
+      <c r="P129" s="113"/>
+      <c r="Q129" s="114"/>
       <c r="R129" s="8"/>
       <c r="S129" s="8"/>
       <c r="T129" s="8"/>
@@ -9399,29 +9157,29 @@
       <c r="AQ129" s="5"/>
     </row>
     <row r="130" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="14">
+      <c r="A130" s="121">
         <v>12</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="17"/>
-      <c r="G130" s="17"/>
-      <c r="H130" s="20" t="s">
+      <c r="C130" s="215"/>
+      <c r="D130" s="215"/>
+      <c r="E130" s="215"/>
+      <c r="F130" s="215"/>
+      <c r="G130" s="215"/>
+      <c r="H130" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="I130" s="21"/>
-      <c r="J130" s="21"/>
-      <c r="K130" s="22"/>
-      <c r="L130" s="26"/>
-      <c r="M130" s="27"/>
-      <c r="N130" s="47"/>
-      <c r="O130" s="48"/>
-      <c r="P130" s="48"/>
-      <c r="Q130" s="49"/>
+      <c r="I130" s="222"/>
+      <c r="J130" s="222"/>
+      <c r="K130" s="223"/>
+      <c r="L130" s="81"/>
+      <c r="M130" s="83"/>
+      <c r="N130" s="112"/>
+      <c r="O130" s="113"/>
+      <c r="P130" s="113"/>
+      <c r="Q130" s="114"/>
       <c r="R130" s="8"/>
       <c r="S130" s="8"/>
       <c r="T130" s="8"/>
@@ -9450,23 +9208,23 @@
       <c r="AQ130" s="5"/>
     </row>
     <row r="131" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="15"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="23"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="24"/>
-      <c r="K131" s="25"/>
-      <c r="L131" s="28"/>
-      <c r="M131" s="29"/>
-      <c r="N131" s="28"/>
-      <c r="O131" s="50"/>
-      <c r="P131" s="50"/>
-      <c r="Q131" s="29"/>
+      <c r="A131" s="123"/>
+      <c r="B131" s="217"/>
+      <c r="C131" s="218"/>
+      <c r="D131" s="218"/>
+      <c r="E131" s="218"/>
+      <c r="F131" s="218"/>
+      <c r="G131" s="218"/>
+      <c r="H131" s="224"/>
+      <c r="I131" s="225"/>
+      <c r="J131" s="225"/>
+      <c r="K131" s="226"/>
+      <c r="L131" s="84"/>
+      <c r="M131" s="86"/>
+      <c r="N131" s="84"/>
+      <c r="O131" s="85"/>
+      <c r="P131" s="85"/>
+      <c r="Q131" s="86"/>
       <c r="R131" s="8"/>
       <c r="S131" s="8"/>
       <c r="T131" s="8"/>
@@ -9495,278 +9253,278 @@
       <c r="AQ131" s="5"/>
     </row>
     <row r="132" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="30" t="s">
+      <c r="A132" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="30"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="30"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="30"/>
-      <c r="I132" s="30"/>
-      <c r="J132" s="30"/>
-      <c r="K132" s="30"/>
-      <c r="L132" s="30"/>
-      <c r="M132" s="30"/>
-      <c r="N132" s="30"/>
-      <c r="O132" s="30"/>
-      <c r="P132" s="30"/>
-      <c r="Q132" s="30"/>
-      <c r="R132" s="30"/>
-      <c r="S132" s="30"/>
-      <c r="T132" s="30"/>
-      <c r="U132" s="30"/>
-      <c r="V132" s="30"/>
-      <c r="W132" s="30"/>
-      <c r="X132" s="30"/>
-      <c r="Y132" s="30"/>
-      <c r="Z132" s="30"/>
-      <c r="AA132" s="30"/>
-      <c r="AB132" s="30"/>
-      <c r="AC132" s="30"/>
-      <c r="AD132" s="30"/>
-      <c r="AE132" s="30"/>
-      <c r="AF132" s="30"/>
-      <c r="AG132" s="33" t="s">
+      <c r="B132" s="233"/>
+      <c r="C132" s="233"/>
+      <c r="D132" s="233"/>
+      <c r="E132" s="233"/>
+      <c r="F132" s="233"/>
+      <c r="G132" s="233"/>
+      <c r="H132" s="233"/>
+      <c r="I132" s="233"/>
+      <c r="J132" s="233"/>
+      <c r="K132" s="233"/>
+      <c r="L132" s="233"/>
+      <c r="M132" s="233"/>
+      <c r="N132" s="233"/>
+      <c r="O132" s="233"/>
+      <c r="P132" s="233"/>
+      <c r="Q132" s="233"/>
+      <c r="R132" s="233"/>
+      <c r="S132" s="233"/>
+      <c r="T132" s="233"/>
+      <c r="U132" s="233"/>
+      <c r="V132" s="233"/>
+      <c r="W132" s="233"/>
+      <c r="X132" s="233"/>
+      <c r="Y132" s="233"/>
+      <c r="Z132" s="233"/>
+      <c r="AA132" s="233"/>
+      <c r="AB132" s="233"/>
+      <c r="AC132" s="233"/>
+      <c r="AD132" s="233"/>
+      <c r="AE132" s="233"/>
+      <c r="AF132" s="233"/>
+      <c r="AG132" s="236" t="s">
         <v>22</v>
       </c>
-      <c r="AH132" s="33"/>
-      <c r="AI132" s="33"/>
-      <c r="AJ132" s="33"/>
-      <c r="AK132" s="33"/>
-      <c r="AL132" s="33"/>
-      <c r="AM132" s="33"/>
-      <c r="AN132" s="33"/>
-      <c r="AO132" s="33"/>
-      <c r="AP132" s="33"/>
-      <c r="AQ132" s="33"/>
+      <c r="AH132" s="236"/>
+      <c r="AI132" s="236"/>
+      <c r="AJ132" s="236"/>
+      <c r="AK132" s="236"/>
+      <c r="AL132" s="236"/>
+      <c r="AM132" s="236"/>
+      <c r="AN132" s="236"/>
+      <c r="AO132" s="236"/>
+      <c r="AP132" s="236"/>
+      <c r="AQ132" s="236"/>
     </row>
     <row r="133" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="31"/>
-      <c r="B133" s="31"/>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
-      <c r="F133" s="31"/>
-      <c r="G133" s="31"/>
-      <c r="H133" s="31"/>
-      <c r="I133" s="31"/>
-      <c r="J133" s="31"/>
-      <c r="K133" s="31"/>
-      <c r="L133" s="31"/>
-      <c r="M133" s="31"/>
-      <c r="N133" s="31"/>
-      <c r="O133" s="31"/>
-      <c r="P133" s="31"/>
-      <c r="Q133" s="31"/>
-      <c r="R133" s="31"/>
-      <c r="S133" s="31"/>
-      <c r="T133" s="31"/>
-      <c r="U133" s="31"/>
-      <c r="V133" s="31"/>
-      <c r="W133" s="31"/>
-      <c r="X133" s="31"/>
-      <c r="Y133" s="31"/>
-      <c r="Z133" s="31"/>
-      <c r="AA133" s="31"/>
-      <c r="AB133" s="31"/>
-      <c r="AC133" s="31"/>
-      <c r="AD133" s="31"/>
-      <c r="AE133" s="31"/>
-      <c r="AF133" s="31"/>
-      <c r="AG133" s="34"/>
-      <c r="AH133" s="34"/>
-      <c r="AI133" s="34"/>
-      <c r="AJ133" s="34"/>
-      <c r="AK133" s="34"/>
-      <c r="AL133" s="34"/>
-      <c r="AM133" s="34"/>
-      <c r="AN133" s="34"/>
-      <c r="AO133" s="34"/>
-      <c r="AP133" s="34"/>
-      <c r="AQ133" s="34"/>
+      <c r="A133" s="234"/>
+      <c r="B133" s="234"/>
+      <c r="C133" s="234"/>
+      <c r="D133" s="234"/>
+      <c r="E133" s="234"/>
+      <c r="F133" s="234"/>
+      <c r="G133" s="234"/>
+      <c r="H133" s="234"/>
+      <c r="I133" s="234"/>
+      <c r="J133" s="234"/>
+      <c r="K133" s="234"/>
+      <c r="L133" s="234"/>
+      <c r="M133" s="234"/>
+      <c r="N133" s="234"/>
+      <c r="O133" s="234"/>
+      <c r="P133" s="234"/>
+      <c r="Q133" s="234"/>
+      <c r="R133" s="234"/>
+      <c r="S133" s="234"/>
+      <c r="T133" s="234"/>
+      <c r="U133" s="234"/>
+      <c r="V133" s="234"/>
+      <c r="W133" s="234"/>
+      <c r="X133" s="234"/>
+      <c r="Y133" s="234"/>
+      <c r="Z133" s="234"/>
+      <c r="AA133" s="234"/>
+      <c r="AB133" s="234"/>
+      <c r="AC133" s="234"/>
+      <c r="AD133" s="234"/>
+      <c r="AE133" s="234"/>
+      <c r="AF133" s="234"/>
+      <c r="AG133" s="237"/>
+      <c r="AH133" s="237"/>
+      <c r="AI133" s="237"/>
+      <c r="AJ133" s="237"/>
+      <c r="AK133" s="237"/>
+      <c r="AL133" s="237"/>
+      <c r="AM133" s="237"/>
+      <c r="AN133" s="237"/>
+      <c r="AO133" s="237"/>
+      <c r="AP133" s="237"/>
+      <c r="AQ133" s="237"/>
     </row>
     <row r="134" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="31"/>
-      <c r="B134" s="31"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="31"/>
-      <c r="F134" s="31"/>
-      <c r="G134" s="31"/>
-      <c r="H134" s="31"/>
-      <c r="I134" s="31"/>
-      <c r="J134" s="31"/>
-      <c r="K134" s="31"/>
-      <c r="L134" s="31"/>
-      <c r="M134" s="31"/>
-      <c r="N134" s="31"/>
-      <c r="O134" s="31"/>
-      <c r="P134" s="31"/>
-      <c r="Q134" s="31"/>
-      <c r="R134" s="31"/>
-      <c r="S134" s="31"/>
-      <c r="T134" s="31"/>
-      <c r="U134" s="31"/>
-      <c r="V134" s="31"/>
-      <c r="W134" s="31"/>
-      <c r="X134" s="31"/>
-      <c r="Y134" s="31"/>
-      <c r="Z134" s="31"/>
-      <c r="AA134" s="31"/>
-      <c r="AB134" s="31"/>
-      <c r="AC134" s="31"/>
-      <c r="AD134" s="31"/>
-      <c r="AE134" s="31"/>
-      <c r="AF134" s="31"/>
-      <c r="AG134" s="34"/>
-      <c r="AH134" s="34"/>
-      <c r="AI134" s="34"/>
-      <c r="AJ134" s="34"/>
-      <c r="AK134" s="34"/>
-      <c r="AL134" s="34"/>
-      <c r="AM134" s="34"/>
-      <c r="AN134" s="34"/>
-      <c r="AO134" s="34"/>
-      <c r="AP134" s="34"/>
-      <c r="AQ134" s="34"/>
+      <c r="A134" s="234"/>
+      <c r="B134" s="234"/>
+      <c r="C134" s="234"/>
+      <c r="D134" s="234"/>
+      <c r="E134" s="234"/>
+      <c r="F134" s="234"/>
+      <c r="G134" s="234"/>
+      <c r="H134" s="234"/>
+      <c r="I134" s="234"/>
+      <c r="J134" s="234"/>
+      <c r="K134" s="234"/>
+      <c r="L134" s="234"/>
+      <c r="M134" s="234"/>
+      <c r="N134" s="234"/>
+      <c r="O134" s="234"/>
+      <c r="P134" s="234"/>
+      <c r="Q134" s="234"/>
+      <c r="R134" s="234"/>
+      <c r="S134" s="234"/>
+      <c r="T134" s="234"/>
+      <c r="U134" s="234"/>
+      <c r="V134" s="234"/>
+      <c r="W134" s="234"/>
+      <c r="X134" s="234"/>
+      <c r="Y134" s="234"/>
+      <c r="Z134" s="234"/>
+      <c r="AA134" s="234"/>
+      <c r="AB134" s="234"/>
+      <c r="AC134" s="234"/>
+      <c r="AD134" s="234"/>
+      <c r="AE134" s="234"/>
+      <c r="AF134" s="234"/>
+      <c r="AG134" s="237"/>
+      <c r="AH134" s="237"/>
+      <c r="AI134" s="237"/>
+      <c r="AJ134" s="237"/>
+      <c r="AK134" s="237"/>
+      <c r="AL134" s="237"/>
+      <c r="AM134" s="237"/>
+      <c r="AN134" s="237"/>
+      <c r="AO134" s="237"/>
+      <c r="AP134" s="237"/>
+      <c r="AQ134" s="237"/>
     </row>
     <row r="135" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="31"/>
-      <c r="B135" s="31"/>
-      <c r="C135" s="31"/>
-      <c r="D135" s="31"/>
-      <c r="E135" s="31"/>
-      <c r="F135" s="31"/>
-      <c r="G135" s="31"/>
-      <c r="H135" s="31"/>
-      <c r="I135" s="31"/>
-      <c r="J135" s="31"/>
-      <c r="K135" s="31"/>
-      <c r="L135" s="31"/>
-      <c r="M135" s="31"/>
-      <c r="N135" s="31"/>
-      <c r="O135" s="31"/>
-      <c r="P135" s="31"/>
-      <c r="Q135" s="31"/>
-      <c r="R135" s="31"/>
-      <c r="S135" s="31"/>
-      <c r="T135" s="31"/>
-      <c r="U135" s="31"/>
-      <c r="V135" s="31"/>
-      <c r="W135" s="31"/>
-      <c r="X135" s="31"/>
-      <c r="Y135" s="31"/>
-      <c r="Z135" s="31"/>
-      <c r="AA135" s="31"/>
-      <c r="AB135" s="31"/>
-      <c r="AC135" s="31"/>
-      <c r="AD135" s="31"/>
-      <c r="AE135" s="31"/>
-      <c r="AF135" s="31"/>
-      <c r="AG135" s="34"/>
-      <c r="AH135" s="34"/>
-      <c r="AI135" s="34"/>
-      <c r="AJ135" s="34"/>
-      <c r="AK135" s="34"/>
-      <c r="AL135" s="34"/>
-      <c r="AM135" s="34"/>
-      <c r="AN135" s="34"/>
-      <c r="AO135" s="34"/>
-      <c r="AP135" s="34"/>
-      <c r="AQ135" s="34"/>
+      <c r="A135" s="234"/>
+      <c r="B135" s="234"/>
+      <c r="C135" s="234"/>
+      <c r="D135" s="234"/>
+      <c r="E135" s="234"/>
+      <c r="F135" s="234"/>
+      <c r="G135" s="234"/>
+      <c r="H135" s="234"/>
+      <c r="I135" s="234"/>
+      <c r="J135" s="234"/>
+      <c r="K135" s="234"/>
+      <c r="L135" s="234"/>
+      <c r="M135" s="234"/>
+      <c r="N135" s="234"/>
+      <c r="O135" s="234"/>
+      <c r="P135" s="234"/>
+      <c r="Q135" s="234"/>
+      <c r="R135" s="234"/>
+      <c r="S135" s="234"/>
+      <c r="T135" s="234"/>
+      <c r="U135" s="234"/>
+      <c r="V135" s="234"/>
+      <c r="W135" s="234"/>
+      <c r="X135" s="234"/>
+      <c r="Y135" s="234"/>
+      <c r="Z135" s="234"/>
+      <c r="AA135" s="234"/>
+      <c r="AB135" s="234"/>
+      <c r="AC135" s="234"/>
+      <c r="AD135" s="234"/>
+      <c r="AE135" s="234"/>
+      <c r="AF135" s="234"/>
+      <c r="AG135" s="237"/>
+      <c r="AH135" s="237"/>
+      <c r="AI135" s="237"/>
+      <c r="AJ135" s="237"/>
+      <c r="AK135" s="237"/>
+      <c r="AL135" s="237"/>
+      <c r="AM135" s="237"/>
+      <c r="AN135" s="237"/>
+      <c r="AO135" s="237"/>
+      <c r="AP135" s="237"/>
+      <c r="AQ135" s="237"/>
     </row>
     <row r="136" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="31"/>
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="31"/>
-      <c r="F136" s="31"/>
-      <c r="G136" s="31"/>
-      <c r="H136" s="31"/>
-      <c r="I136" s="31"/>
-      <c r="J136" s="31"/>
-      <c r="K136" s="31"/>
-      <c r="L136" s="31"/>
-      <c r="M136" s="31"/>
-      <c r="N136" s="31"/>
-      <c r="O136" s="31"/>
-      <c r="P136" s="31"/>
-      <c r="Q136" s="31"/>
-      <c r="R136" s="31"/>
-      <c r="S136" s="31"/>
-      <c r="T136" s="31"/>
-      <c r="U136" s="31"/>
-      <c r="V136" s="31"/>
-      <c r="W136" s="31"/>
-      <c r="X136" s="31"/>
-      <c r="Y136" s="31"/>
-      <c r="Z136" s="31"/>
-      <c r="AA136" s="31"/>
-      <c r="AB136" s="31"/>
-      <c r="AC136" s="31"/>
-      <c r="AD136" s="31"/>
-      <c r="AE136" s="31"/>
-      <c r="AF136" s="31"/>
-      <c r="AG136" s="34"/>
-      <c r="AH136" s="34"/>
-      <c r="AI136" s="34"/>
-      <c r="AJ136" s="34"/>
-      <c r="AK136" s="34"/>
-      <c r="AL136" s="34"/>
-      <c r="AM136" s="34"/>
-      <c r="AN136" s="34"/>
-      <c r="AO136" s="34"/>
-      <c r="AP136" s="34"/>
-      <c r="AQ136" s="34"/>
+      <c r="A136" s="234"/>
+      <c r="B136" s="234"/>
+      <c r="C136" s="234"/>
+      <c r="D136" s="234"/>
+      <c r="E136" s="234"/>
+      <c r="F136" s="234"/>
+      <c r="G136" s="234"/>
+      <c r="H136" s="234"/>
+      <c r="I136" s="234"/>
+      <c r="J136" s="234"/>
+      <c r="K136" s="234"/>
+      <c r="L136" s="234"/>
+      <c r="M136" s="234"/>
+      <c r="N136" s="234"/>
+      <c r="O136" s="234"/>
+      <c r="P136" s="234"/>
+      <c r="Q136" s="234"/>
+      <c r="R136" s="234"/>
+      <c r="S136" s="234"/>
+      <c r="T136" s="234"/>
+      <c r="U136" s="234"/>
+      <c r="V136" s="234"/>
+      <c r="W136" s="234"/>
+      <c r="X136" s="234"/>
+      <c r="Y136" s="234"/>
+      <c r="Z136" s="234"/>
+      <c r="AA136" s="234"/>
+      <c r="AB136" s="234"/>
+      <c r="AC136" s="234"/>
+      <c r="AD136" s="234"/>
+      <c r="AE136" s="234"/>
+      <c r="AF136" s="234"/>
+      <c r="AG136" s="237"/>
+      <c r="AH136" s="237"/>
+      <c r="AI136" s="237"/>
+      <c r="AJ136" s="237"/>
+      <c r="AK136" s="237"/>
+      <c r="AL136" s="237"/>
+      <c r="AM136" s="237"/>
+      <c r="AN136" s="237"/>
+      <c r="AO136" s="237"/>
+      <c r="AP136" s="237"/>
+      <c r="AQ136" s="237"/>
     </row>
     <row r="137" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="32"/>
-      <c r="B137" s="32"/>
-      <c r="C137" s="32"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="32"/>
-      <c r="I137" s="32"/>
-      <c r="J137" s="32"/>
-      <c r="K137" s="32"/>
-      <c r="L137" s="32"/>
-      <c r="M137" s="32"/>
-      <c r="N137" s="32"/>
-      <c r="O137" s="32"/>
-      <c r="P137" s="32"/>
-      <c r="Q137" s="32"/>
-      <c r="R137" s="32"/>
-      <c r="S137" s="32"/>
-      <c r="T137" s="32"/>
-      <c r="U137" s="32"/>
-      <c r="V137" s="32"/>
-      <c r="W137" s="32"/>
-      <c r="X137" s="32"/>
-      <c r="Y137" s="32"/>
-      <c r="Z137" s="32"/>
-      <c r="AA137" s="32"/>
-      <c r="AB137" s="32"/>
-      <c r="AC137" s="32"/>
-      <c r="AD137" s="32"/>
-      <c r="AE137" s="32"/>
-      <c r="AF137" s="32"/>
-      <c r="AG137" s="35"/>
-      <c r="AH137" s="35"/>
-      <c r="AI137" s="35"/>
-      <c r="AJ137" s="35"/>
-      <c r="AK137" s="35"/>
-      <c r="AL137" s="35"/>
-      <c r="AM137" s="35"/>
-      <c r="AN137" s="35"/>
-      <c r="AO137" s="35"/>
-      <c r="AP137" s="35"/>
-      <c r="AQ137" s="35"/>
+      <c r="A137" s="235"/>
+      <c r="B137" s="235"/>
+      <c r="C137" s="235"/>
+      <c r="D137" s="235"/>
+      <c r="E137" s="235"/>
+      <c r="F137" s="235"/>
+      <c r="G137" s="235"/>
+      <c r="H137" s="235"/>
+      <c r="I137" s="235"/>
+      <c r="J137" s="235"/>
+      <c r="K137" s="235"/>
+      <c r="L137" s="235"/>
+      <c r="M137" s="235"/>
+      <c r="N137" s="235"/>
+      <c r="O137" s="235"/>
+      <c r="P137" s="235"/>
+      <c r="Q137" s="235"/>
+      <c r="R137" s="235"/>
+      <c r="S137" s="235"/>
+      <c r="T137" s="235"/>
+      <c r="U137" s="235"/>
+      <c r="V137" s="235"/>
+      <c r="W137" s="235"/>
+      <c r="X137" s="235"/>
+      <c r="Y137" s="235"/>
+      <c r="Z137" s="235"/>
+      <c r="AA137" s="235"/>
+      <c r="AB137" s="235"/>
+      <c r="AC137" s="235"/>
+      <c r="AD137" s="235"/>
+      <c r="AE137" s="235"/>
+      <c r="AF137" s="235"/>
+      <c r="AG137" s="238"/>
+      <c r="AH137" s="238"/>
+      <c r="AI137" s="238"/>
+      <c r="AJ137" s="238"/>
+      <c r="AK137" s="238"/>
+      <c r="AL137" s="238"/>
+      <c r="AM137" s="238"/>
+      <c r="AN137" s="238"/>
+      <c r="AO137" s="238"/>
+      <c r="AP137" s="238"/>
+      <c r="AQ137" s="238"/>
     </row>
     <row r="138" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="139" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9949,83 +9707,268 @@
     <row r="316" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="375">
-    <mergeCell ref="B56:G58"/>
-    <mergeCell ref="H56:K58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:G60"/>
-    <mergeCell ref="H59:K60"/>
-    <mergeCell ref="B67:G68"/>
-    <mergeCell ref="H67:K68"/>
-    <mergeCell ref="B61:G62"/>
-    <mergeCell ref="H61:K62"/>
-    <mergeCell ref="B63:G64"/>
-    <mergeCell ref="B54:G55"/>
-    <mergeCell ref="H54:K55"/>
-    <mergeCell ref="AO30:AQ30"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AL31:AN31"/>
-    <mergeCell ref="AO31:AQ31"/>
-    <mergeCell ref="AA32:AC33"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AL32:AN32"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="AG39:AI39"/>
-    <mergeCell ref="AO39:AQ39"/>
-    <mergeCell ref="AO40:AQ40"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AO36:AQ36"/>
-    <mergeCell ref="AL36:AN36"/>
-    <mergeCell ref="AL37:AN37"/>
-    <mergeCell ref="AL34:AN34"/>
-    <mergeCell ref="AL39:AN39"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="AL29:AN29"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B50:G51"/>
-    <mergeCell ref="H50:K51"/>
-    <mergeCell ref="B52:G53"/>
-    <mergeCell ref="H52:K53"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="L69:M70"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="L67:M68"/>
-    <mergeCell ref="B69:G70"/>
-    <mergeCell ref="H69:K70"/>
-    <mergeCell ref="H63:K64"/>
-    <mergeCell ref="B65:G66"/>
-    <mergeCell ref="H65:K66"/>
-    <mergeCell ref="AO38:AQ38"/>
-    <mergeCell ref="V42:AK47"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="A9:L10"/>
-    <mergeCell ref="M9:U10"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="AL33:AN33"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="N48:Q49"/>
-    <mergeCell ref="L50:M51"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:G131"/>
+    <mergeCell ref="H130:K131"/>
+    <mergeCell ref="L130:M131"/>
+    <mergeCell ref="A132:AF137"/>
+    <mergeCell ref="AG132:AQ137"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:G125"/>
+    <mergeCell ref="H124:K125"/>
+    <mergeCell ref="L124:M125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:G127"/>
+    <mergeCell ref="H126:K127"/>
+    <mergeCell ref="L126:M127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:G129"/>
+    <mergeCell ref="H128:K129"/>
+    <mergeCell ref="L128:M129"/>
+    <mergeCell ref="H118:K119"/>
+    <mergeCell ref="L118:M119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:G121"/>
+    <mergeCell ref="H120:K121"/>
+    <mergeCell ref="L120:M121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:G123"/>
+    <mergeCell ref="H122:K123"/>
+    <mergeCell ref="L122:M123"/>
+    <mergeCell ref="N106:Q107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:G109"/>
+    <mergeCell ref="H108:K109"/>
+    <mergeCell ref="L108:M109"/>
+    <mergeCell ref="N108:Q131"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:G111"/>
+    <mergeCell ref="H110:K111"/>
+    <mergeCell ref="L110:M111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:G113"/>
+    <mergeCell ref="H112:K113"/>
+    <mergeCell ref="L112:M113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:G115"/>
+    <mergeCell ref="H114:K115"/>
+    <mergeCell ref="L114:M115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:G117"/>
+    <mergeCell ref="H116:K117"/>
+    <mergeCell ref="L116:M117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:G119"/>
+    <mergeCell ref="L102:M103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:G105"/>
+    <mergeCell ref="H104:K105"/>
+    <mergeCell ref="L104:M105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:G107"/>
+    <mergeCell ref="H106:K107"/>
+    <mergeCell ref="L106:M107"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:G93"/>
+    <mergeCell ref="H92:K93"/>
+    <mergeCell ref="L92:M93"/>
+    <mergeCell ref="N92:Q105"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:G95"/>
+    <mergeCell ref="H94:K95"/>
+    <mergeCell ref="L94:M95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:G97"/>
+    <mergeCell ref="H96:K97"/>
+    <mergeCell ref="L96:M97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:G99"/>
+    <mergeCell ref="H98:K99"/>
+    <mergeCell ref="L98:M99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:G101"/>
+    <mergeCell ref="H100:K101"/>
+    <mergeCell ref="L100:M101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:G103"/>
+    <mergeCell ref="H102:K103"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:G89"/>
+    <mergeCell ref="H88:K89"/>
+    <mergeCell ref="L88:M89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:G91"/>
+    <mergeCell ref="H90:K91"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="N90:Q91"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:G83"/>
+    <mergeCell ref="H82:K83"/>
+    <mergeCell ref="L82:M83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:G85"/>
+    <mergeCell ref="H84:K85"/>
+    <mergeCell ref="L84:M85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:G87"/>
+    <mergeCell ref="H86:K87"/>
+    <mergeCell ref="L86:M87"/>
+    <mergeCell ref="A71:Q71"/>
+    <mergeCell ref="R71:AQ71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="H72:K73"/>
+    <mergeCell ref="L72:M73"/>
+    <mergeCell ref="N72:Q73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:G75"/>
+    <mergeCell ref="H74:K75"/>
+    <mergeCell ref="L74:M75"/>
+    <mergeCell ref="N74:Q89"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:G77"/>
+    <mergeCell ref="H76:K77"/>
+    <mergeCell ref="L76:M77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:G79"/>
+    <mergeCell ref="H78:K79"/>
+    <mergeCell ref="L78:M79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:G81"/>
+    <mergeCell ref="H80:K81"/>
+    <mergeCell ref="L80:M81"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N38:O39"/>
+    <mergeCell ref="K38:M39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N36:O37"/>
+    <mergeCell ref="K36:M37"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="E40:G41"/>
+    <mergeCell ref="E38:G39"/>
+    <mergeCell ref="A28:D35"/>
+    <mergeCell ref="A36:D39"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="AL40:AN40"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="AL42:AQ47"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="AL41:AN41"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="A44:U47"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="A40:D43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="E42:G43"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="AA36:AC37"/>
+    <mergeCell ref="AA38:AC39"/>
+    <mergeCell ref="AA40:AC41"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="AA30:AC31"/>
+    <mergeCell ref="W28:Z31"/>
+    <mergeCell ref="AA34:AC35"/>
+    <mergeCell ref="W36:Z41"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="W32:Z35"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AA28:AC29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="AO27:AQ27"/>
+    <mergeCell ref="AO28:AQ28"/>
+    <mergeCell ref="AO29:AQ29"/>
+    <mergeCell ref="AL30:AN30"/>
+    <mergeCell ref="AG27:AI27"/>
+    <mergeCell ref="AJ28:AK28"/>
+    <mergeCell ref="AG28:AI28"/>
+    <mergeCell ref="AJ29:AK29"/>
+    <mergeCell ref="AG29:AI29"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AG30:AI30"/>
+    <mergeCell ref="AG34:AI34"/>
+    <mergeCell ref="AJ35:AK35"/>
+    <mergeCell ref="AG35:AI35"/>
+    <mergeCell ref="AD35:AF35"/>
+    <mergeCell ref="AJ33:AK33"/>
+    <mergeCell ref="AG33:AI33"/>
+    <mergeCell ref="AL28:AN28"/>
+    <mergeCell ref="G1:AI3"/>
+    <mergeCell ref="AJ1:AQ3"/>
+    <mergeCell ref="A4:AI6"/>
+    <mergeCell ref="V9:AI10"/>
+    <mergeCell ref="AN4:AQ10"/>
+    <mergeCell ref="L56:M58"/>
+    <mergeCell ref="L54:M55"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="V7:AI8"/>
+    <mergeCell ref="A7:J8"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="AJ31:AK31"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="AG32:AI32"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="L48:M49"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="AJ38:AK38"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="AJ4:AM10"/>
     <mergeCell ref="K7:U8"/>
@@ -10050,280 +9993,95 @@
     <mergeCell ref="AO33:AQ33"/>
     <mergeCell ref="AJ36:AK36"/>
     <mergeCell ref="AG36:AI36"/>
+    <mergeCell ref="A9:L10"/>
+    <mergeCell ref="M9:U10"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="E34:G35"/>
+    <mergeCell ref="E36:G37"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="L69:M70"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="L67:M68"/>
+    <mergeCell ref="B69:G70"/>
+    <mergeCell ref="H69:K70"/>
+    <mergeCell ref="H63:K64"/>
+    <mergeCell ref="B65:G66"/>
+    <mergeCell ref="H65:K66"/>
+    <mergeCell ref="AL29:AN29"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B50:G51"/>
+    <mergeCell ref="H50:K51"/>
+    <mergeCell ref="B52:G53"/>
+    <mergeCell ref="H52:K53"/>
+    <mergeCell ref="V42:AK47"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="AL33:AN33"/>
+    <mergeCell ref="N48:Q49"/>
+    <mergeCell ref="L50:M51"/>
     <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="G1:AI3"/>
-    <mergeCell ref="AJ1:AQ3"/>
-    <mergeCell ref="A4:AI6"/>
-    <mergeCell ref="V9:AI10"/>
-    <mergeCell ref="AN4:AQ10"/>
-    <mergeCell ref="L56:M58"/>
-    <mergeCell ref="L54:M55"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="V7:AI8"/>
-    <mergeCell ref="A7:J8"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="AJ31:AK31"/>
-    <mergeCell ref="AG31:AI31"/>
-    <mergeCell ref="AG32:AI32"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="L48:M49"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="AJ38:AK38"/>
     <mergeCell ref="AG38:AI38"/>
     <mergeCell ref="AG37:AI37"/>
     <mergeCell ref="AJ40:AK40"/>
     <mergeCell ref="AG40:AI40"/>
     <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="B54:G55"/>
+    <mergeCell ref="H54:K55"/>
+    <mergeCell ref="AO30:AQ30"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AL31:AN31"/>
+    <mergeCell ref="AO31:AQ31"/>
+    <mergeCell ref="AA32:AC33"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AL32:AN32"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="AG39:AI39"/>
+    <mergeCell ref="AO39:AQ39"/>
+    <mergeCell ref="AO40:AQ40"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AO36:AQ36"/>
+    <mergeCell ref="AL36:AN36"/>
+    <mergeCell ref="AL37:AN37"/>
+    <mergeCell ref="AL34:AN34"/>
+    <mergeCell ref="AL39:AN39"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="AO38:AQ38"/>
     <mergeCell ref="AG41:AI41"/>
     <mergeCell ref="AO34:AQ34"/>
     <mergeCell ref="AL35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="AO27:AQ27"/>
-    <mergeCell ref="AO28:AQ28"/>
-    <mergeCell ref="AO29:AQ29"/>
-    <mergeCell ref="AL30:AN30"/>
-    <mergeCell ref="AG27:AI27"/>
-    <mergeCell ref="AJ28:AK28"/>
-    <mergeCell ref="AG28:AI28"/>
-    <mergeCell ref="AJ29:AK29"/>
-    <mergeCell ref="AG29:AI29"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AG30:AI30"/>
-    <mergeCell ref="AG34:AI34"/>
-    <mergeCell ref="AJ35:AK35"/>
-    <mergeCell ref="AG35:AI35"/>
-    <mergeCell ref="AD35:AF35"/>
-    <mergeCell ref="AJ33:AK33"/>
-    <mergeCell ref="AG33:AI33"/>
-    <mergeCell ref="AL28:AN28"/>
-    <mergeCell ref="AA36:AC37"/>
-    <mergeCell ref="AA38:AC39"/>
-    <mergeCell ref="AA40:AC41"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="AA30:AC31"/>
-    <mergeCell ref="W28:Z31"/>
-    <mergeCell ref="AA34:AC35"/>
-    <mergeCell ref="W36:Z41"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="W32:Z35"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="AA28:AC29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="AL40:AN40"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="AL42:AQ47"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="AL41:AN41"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="A44:U47"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="A40:D43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="E42:G43"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="E34:G35"/>
-    <mergeCell ref="E36:G37"/>
-    <mergeCell ref="E40:G41"/>
-    <mergeCell ref="E38:G39"/>
-    <mergeCell ref="A28:D35"/>
-    <mergeCell ref="A36:D39"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="K36:M37"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N38:O39"/>
-    <mergeCell ref="K38:M39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="A71:Q71"/>
-    <mergeCell ref="R71:AQ71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="H72:K73"/>
-    <mergeCell ref="L72:M73"/>
-    <mergeCell ref="N72:Q73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:G75"/>
-    <mergeCell ref="H74:K75"/>
-    <mergeCell ref="L74:M75"/>
-    <mergeCell ref="N74:Q89"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:G77"/>
-    <mergeCell ref="H76:K77"/>
-    <mergeCell ref="L76:M77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:G79"/>
-    <mergeCell ref="H78:K79"/>
-    <mergeCell ref="L78:M79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:G81"/>
-    <mergeCell ref="H80:K81"/>
-    <mergeCell ref="L80:M81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:G83"/>
-    <mergeCell ref="H82:K83"/>
-    <mergeCell ref="L82:M83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:G85"/>
-    <mergeCell ref="H84:K85"/>
-    <mergeCell ref="L84:M85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:G87"/>
-    <mergeCell ref="H86:K87"/>
-    <mergeCell ref="L86:M87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:G89"/>
-    <mergeCell ref="H88:K89"/>
-    <mergeCell ref="L88:M89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:G91"/>
-    <mergeCell ref="H90:K91"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="N90:Q91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:G93"/>
-    <mergeCell ref="H92:K93"/>
-    <mergeCell ref="L92:M93"/>
-    <mergeCell ref="N92:Q105"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:G95"/>
-    <mergeCell ref="H94:K95"/>
-    <mergeCell ref="L94:M95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:G97"/>
-    <mergeCell ref="H96:K97"/>
-    <mergeCell ref="L96:M97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:G99"/>
-    <mergeCell ref="H98:K99"/>
-    <mergeCell ref="L98:M99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:G101"/>
-    <mergeCell ref="H100:K101"/>
-    <mergeCell ref="L100:M101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:G103"/>
-    <mergeCell ref="H102:K103"/>
-    <mergeCell ref="L102:M103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:G105"/>
-    <mergeCell ref="H104:K105"/>
-    <mergeCell ref="L104:M105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:G107"/>
-    <mergeCell ref="H106:K107"/>
-    <mergeCell ref="L106:M107"/>
-    <mergeCell ref="N106:Q107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:G109"/>
-    <mergeCell ref="H108:K109"/>
-    <mergeCell ref="L108:M109"/>
-    <mergeCell ref="N108:Q131"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:G111"/>
-    <mergeCell ref="H110:K111"/>
-    <mergeCell ref="L110:M111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:G113"/>
-    <mergeCell ref="H112:K113"/>
-    <mergeCell ref="L112:M113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:G115"/>
-    <mergeCell ref="H114:K115"/>
-    <mergeCell ref="L114:M115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:G117"/>
-    <mergeCell ref="H116:K117"/>
-    <mergeCell ref="L116:M117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:G119"/>
-    <mergeCell ref="H118:K119"/>
-    <mergeCell ref="L118:M119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:G121"/>
-    <mergeCell ref="H120:K121"/>
-    <mergeCell ref="L120:M121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:G123"/>
-    <mergeCell ref="H122:K123"/>
-    <mergeCell ref="L122:M123"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:G131"/>
-    <mergeCell ref="H130:K131"/>
-    <mergeCell ref="L130:M131"/>
-    <mergeCell ref="A132:AF137"/>
-    <mergeCell ref="AG132:AQ137"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:G125"/>
-    <mergeCell ref="H124:K125"/>
-    <mergeCell ref="L124:M125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:G127"/>
-    <mergeCell ref="H126:K127"/>
-    <mergeCell ref="L126:M127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:G129"/>
-    <mergeCell ref="H128:K129"/>
-    <mergeCell ref="L128:M129"/>
+    <mergeCell ref="B56:G58"/>
+    <mergeCell ref="H56:K58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:G60"/>
+    <mergeCell ref="H59:K60"/>
+    <mergeCell ref="B67:G68"/>
+    <mergeCell ref="H67:K68"/>
+    <mergeCell ref="B61:G62"/>
+    <mergeCell ref="H61:K62"/>
+    <mergeCell ref="B63:G64"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
